--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1342641.090766969</v>
+        <v>1365327.544761377</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2999618.213667038</v>
+        <v>2999274.929271601</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10995223.53088589</v>
+        <v>11018589.67357676</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6954041.195856923</v>
+        <v>6950993.078110841</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="D11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.269258479438292</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.29709400479254</v>
+        <v>22.56635248423081</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>22.56635248423081</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="Y12" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.018301393454466</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="I13" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="J13" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="K13" t="n">
         <v>19.54805109077634</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3.018301393454494</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="S14" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="T14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>24.24615745924623</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1743,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>24.24615745924623</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="H16" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="I16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>24.24615745924623</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>61.41019607786539</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>69.7209310602468</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.7209310602468</v>
+        <v>74.94880195512719</v>
       </c>
       <c r="S17" t="n">
-        <v>69.7209310602468</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.7209310602468</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>69.7209310602468</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>69.7209310602468</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>74.94880195512724</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>61.41019607786535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>69.7209310602468</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="T19" t="n">
-        <v>69.7209310602468</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="V19" t="n">
-        <v>69.7209310602468</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>61.41019607786539</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>74.94880195512724</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>129.1042138032632</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>111.3594628755756</v>
+        <v>112.1976799260474</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>185.4244115490291</v>
       </c>
       <c r="U20" t="n">
-        <v>212.8359978422624</v>
+        <v>155.6775830460246</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>128.0235285842932</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>135.0370609732134</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.9736424402986</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>99.67207914810832</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>74.56400622139415</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>62.48639613754082</v>
       </c>
       <c r="S21" t="n">
-        <v>133.1735160382637</v>
+        <v>134.0117330887355</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>162.4932906797193</v>
       </c>
       <c r="U21" t="n">
-        <v>187.4317270154007</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>152.2631097888278</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>147.090043587409</v>
       </c>
       <c r="X21" t="n">
-        <v>167.2633301379034</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>167.1730407117302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>141.3223251163632</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>55.68774210157046</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>93.62305553539002</v>
       </c>
       <c r="X22" t="n">
-        <v>187.200000323463</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.630906721131259</v>
+        <v>180.9132153369925</v>
       </c>
     </row>
     <row r="23">
@@ -2315,68 +2315,68 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>123.8667053858537</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>171.348631571143</v>
+      </c>
+      <c r="T23" t="n">
+        <v>185.4244115490291</v>
+      </c>
+      <c r="U23" t="n">
+        <v>213.6742148927342</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>170.5104145206712</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>41.77497112277079</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>128.0235285842932</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>25.16824285648955</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>109.7736275495364</v>
       </c>
       <c r="E24" t="n">
-        <v>119.1354253898268</v>
+        <v>119.9736424402986</v>
       </c>
       <c r="F24" t="n">
-        <v>90.79369966506621</v>
+        <v>107.3977743782816</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>73.72578917092234</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>61.64817908706901</v>
+        <v>62.48639613754082</v>
       </c>
       <c r="S24" t="n">
-        <v>133.1735160382637</v>
+        <v>134.0117330887355</v>
       </c>
       <c r="T24" t="n">
-        <v>161.6550736292475</v>
+        <v>162.4932906797193</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>214.0235451458173</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.1730407117302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2491,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>123.7175174418655</v>
+        <v>124.5557344923373</v>
       </c>
       <c r="I25" t="n">
-        <v>116.9408198616842</v>
+        <v>117.779036912156</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>55.68774210157046</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>32.20149946788942</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>94.49489485740781</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>58.48136406445866</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>153.8040215789835</v>
+        <v>150.6796913641975</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>149.223871380037</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>153.3961117768666</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>106.736985443659</v>
       </c>
       <c r="C27" t="n">
-        <v>115.5766058945753</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>90.77319757321628</v>
+        <v>87.64886735843039</v>
       </c>
       <c r="E27" t="n">
-        <v>100.9732124639785</v>
+        <v>97.84888224919258</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>85.27301418717552</v>
       </c>
       <c r="G27" t="n">
-        <v>80.67164917178816</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>55.56357624507399</v>
+        <v>52.4392460302881</v>
       </c>
       <c r="I27" t="n">
-        <v>32.7247648599926</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>40.36163594643477</v>
       </c>
       <c r="S27" t="n">
-        <v>115.0113031124153</v>
+        <v>111.8869728976295</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>140.3685304886133</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>195.0231151694971</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>66.87762010390004</v>
       </c>
       <c r="Y27" t="n">
-        <v>149.0108277858819</v>
+        <v>145.886497571096</v>
       </c>
     </row>
     <row r="28">
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.5749531072054</v>
+        <v>107.4506228924195</v>
       </c>
       <c r="D28" t="n">
-        <v>91.94360502678988</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>88.74918003150877</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>95.65427672104992</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.56298191046442</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>150.6902033271974</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>223.6629962298373</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>212.2853856434421</v>
+        <v>151.0291679578499</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>94.7772358086177</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>30.82637861575624</v>
       </c>
       <c r="G30" t="n">
-        <v>23.10068338558301</v>
+        <v>23.100683385583</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.44033732621021</v>
+        <v>57.44033732621018</v>
       </c>
       <c r="T30" t="n">
         <v>85.92189491719397</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>31.17821424530361</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>172.2801645589633</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.41844320454593</v>
+        <v>11.3053034371935</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.8594666780458</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>33.20223178701112</v>
       </c>
       <c r="E33" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777355</v>
       </c>
       <c r="F33" t="n">
         <v>30.82637861575624</v>
       </c>
       <c r="G33" t="n">
-        <v>23.10068338558324</v>
+        <v>23.100683385583</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C34" t="n">
-        <v>19.16994275396237</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E34" t="n">
         <v>32.19112886894153</v>
@@ -3205,7 +3205,7 @@
         <v>47.98433872981194</v>
       </c>
       <c r="I34" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0761955788632</v>
+        <v>88.96479782339213</v>
       </c>
       <c r="V34" t="n">
         <v>137.8948095462003</v>
@@ -3250,10 +3250,10 @@
         <v>172.2801645589633</v>
       </c>
       <c r="X34" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="35">
@@ -3266,23 +3266,23 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>173.232975903413</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="D35" t="n">
+      <c r="H35" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>94.7772358086177</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>137.1028191302088</v>
       </c>
       <c r="V35" t="n">
-        <v>154.0927489956892</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3354,7 @@
         <v>43.40224667777331</v>
       </c>
       <c r="F36" t="n">
-        <v>17.32104746482716</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>23.100683385583</v>
@@ -3396,7 +3396,7 @@
         <v>57.44033732621018</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>85.92189491719397</v>
       </c>
       <c r="U36" t="n">
         <v>111.6985483033472</v>
@@ -3408,7 +3408,7 @@
         <v>137.452149383292</v>
       </c>
       <c r="X36" t="n">
-        <v>91.53015142584984</v>
+        <v>22.92930397348299</v>
       </c>
       <c r="Y36" t="n">
         <v>91.43986199967672</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>32.19112886894153</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>47.98433872981194</v>
       </c>
       <c r="I37" t="n">
         <v>41.20764114963065</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9.056895024340699</v>
       </c>
       <c r="T37" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>172.0761955788632</v>
@@ -3487,10 +3487,10 @@
         <v>172.2801645589633</v>
       </c>
       <c r="X37" t="n">
-        <v>18.02234714695936</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>71.50801228133888</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>188.0392281841958</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>213.4868621528109</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>213.4868621528109</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>96.23305579277827</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>213.5094246925073</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>213.4868621528109</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>52.2903498722397</v>
       </c>
       <c r="C39" t="n">
-        <v>58.4656652106881</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>33.20223178701112</v>
@@ -3645,10 +3645,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>43.16737900274744</v>
       </c>
       <c r="Y39" t="n">
-        <v>83.54278735740351</v>
+        <v>91.43986199967672</v>
       </c>
     </row>
     <row r="40">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C40" t="n">
         <v>53.0039873210002</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E40" t="n">
         <v>32.19112886894153</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>31.17821424530361</v>
       </c>
       <c r="G40" t="n">
-        <v>53.74814558083112</v>
+        <v>35.41665320246901</v>
       </c>
       <c r="H40" t="n">
         <v>47.98433872981194</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>63.05055759954185</v>
       </c>
       <c r="S40" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0761955788632</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>137.8948095462003</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2801645589633</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>49.54728019867208</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>150.8751895655767</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>137.3365836883148</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>155.9225518713838</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C42" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>51.7100322767111</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H42" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>18.14232134383344</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T42" t="n">
-        <v>106.8055485781488</v>
+        <v>17.52051567209658</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W42" t="n">
-        <v>158.3358030442468</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="X42" t="n">
-        <v>112.4138050868047</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.3235156606316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.47280006526452</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>11.32412372861943</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>53.0747825298964</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G43" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H43" t="n">
-        <v>68.8679923907668</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I43" t="n">
-        <v>62.09129481058551</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S43" t="n">
-        <v>130.6574179202995</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>54.37276674760607</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.92870531034908</v>
+        <v>53.80778732512766</v>
       </c>
       <c r="C11" t="n">
-        <v>27.92870531034908</v>
+        <v>27.92870531034907</v>
       </c>
       <c r="D11" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034907</v>
       </c>
       <c r="E11" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034907</v>
       </c>
       <c r="F11" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034907</v>
       </c>
       <c r="G11" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034907</v>
       </c>
       <c r="H11" t="n">
-        <v>2.049623295570466</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="I11" t="n">
-        <v>2.049623295570466</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="J11" t="n">
-        <v>2.049623295570466</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="K11" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825497</v>
       </c>
       <c r="L11" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093948</v>
       </c>
       <c r="M11" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093948</v>
       </c>
       <c r="N11" t="n">
-        <v>77.1170764958388</v>
+        <v>52.77779986093948</v>
       </c>
       <c r="O11" t="n">
-        <v>77.1170764958388</v>
+        <v>77.11707649583875</v>
       </c>
       <c r="P11" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.13847944575737</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>95.13847944575737</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>95.13847944575737</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>95.13847944575737</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>95.13847944575737</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V11" t="n">
-        <v>95.13847944575737</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W11" t="n">
-        <v>69.25939743097875</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X11" t="n">
-        <v>43.38031541620013</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.92870531034908</v>
+        <v>79.68686933990627</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="C12" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="D12" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="E12" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="F12" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="G12" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="H12" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="I12" t="n">
-        <v>2.049623295570466</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="J12" t="n">
-        <v>2.049623295570466</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="K12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825497</v>
       </c>
       <c r="L12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825497</v>
       </c>
       <c r="M12" t="n">
-        <v>27.41371157825499</v>
+        <v>27.41371157825497</v>
       </c>
       <c r="N12" t="n">
-        <v>52.77779986093951</v>
+        <v>27.41371157825497</v>
       </c>
       <c r="O12" t="n">
-        <v>78.14188814362403</v>
+        <v>52.77779986093948</v>
       </c>
       <c r="P12" t="n">
-        <v>102.4811647785233</v>
+        <v>77.11707649583875</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990627</v>
       </c>
       <c r="V12" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990627</v>
       </c>
       <c r="W12" t="n">
-        <v>76.6020827637447</v>
+        <v>53.80778732512766</v>
       </c>
       <c r="X12" t="n">
-        <v>76.6020827637447</v>
+        <v>27.92870531034907</v>
       </c>
       <c r="Y12" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.43237549220565</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C13" t="n">
-        <v>99.43237549220565</v>
+        <v>99.43237549220561</v>
       </c>
       <c r="D13" t="n">
-        <v>99.43237549220565</v>
+        <v>99.43237549220561</v>
       </c>
       <c r="E13" t="n">
-        <v>99.43237549220565</v>
+        <v>99.43237549220561</v>
       </c>
       <c r="F13" t="n">
-        <v>99.43237549220565</v>
+        <v>99.43237549220561</v>
       </c>
       <c r="G13" t="n">
-        <v>99.43237549220565</v>
+        <v>99.43237549220561</v>
       </c>
       <c r="H13" t="n">
-        <v>73.55329347742703</v>
+        <v>73.553293477427</v>
       </c>
       <c r="I13" t="n">
-        <v>47.67421146264842</v>
+        <v>47.6742114626484</v>
       </c>
       <c r="J13" t="n">
         <v>21.7951294478698</v>
       </c>
       <c r="K13" t="n">
-        <v>2.049623295570466</v>
+        <v>2.049623295570465</v>
       </c>
       <c r="L13" t="n">
-        <v>27.413711578255</v>
+        <v>27.41371157825497</v>
       </c>
       <c r="M13" t="n">
-        <v>52.77779986093952</v>
+        <v>52.77779986093947</v>
       </c>
       <c r="N13" t="n">
-        <v>78.14188814362404</v>
+        <v>78.14188814362397</v>
       </c>
       <c r="O13" t="n">
         <v>102.4811647785233</v>
@@ -5236,13 +5236,13 @@
         <v>102.4811647785233</v>
       </c>
       <c r="W13" t="n">
-        <v>99.43237549220565</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X13" t="n">
-        <v>99.43237549220565</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.43237549220565</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.84391873418747</v>
+        <v>30.00767567823849</v>
       </c>
       <c r="C14" t="n">
-        <v>24.84391873418747</v>
+        <v>30.00767567823849</v>
       </c>
       <c r="D14" t="n">
-        <v>2.049623295570466</v>
+        <v>30.00767567823849</v>
       </c>
       <c r="E14" t="n">
-        <v>2.049623295570466</v>
+        <v>30.00767567823849</v>
       </c>
       <c r="F14" t="n">
-        <v>2.049623295570466</v>
+        <v>30.00767567823849</v>
       </c>
       <c r="G14" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="H14" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="I14" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="J14" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="K14" t="n">
-        <v>27.41371157825499</v>
+        <v>29.4543465955875</v>
       </c>
       <c r="L14" t="n">
-        <v>52.77779986093951</v>
+        <v>29.4543465955875</v>
       </c>
       <c r="M14" t="n">
-        <v>52.77779986093951</v>
+        <v>56.70649905318716</v>
       </c>
       <c r="N14" t="n">
-        <v>52.77779986093951</v>
+        <v>83.95865151078681</v>
       </c>
       <c r="O14" t="n">
-        <v>78.14188814362403</v>
+        <v>110.1097068993925</v>
       </c>
       <c r="P14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.1097068993925</v>
       </c>
       <c r="Q14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.1097068993925</v>
       </c>
       <c r="R14" t="n">
-        <v>76.6020827637447</v>
+        <v>82.3042253591419</v>
       </c>
       <c r="S14" t="n">
-        <v>50.72300074896609</v>
+        <v>54.49874381889126</v>
       </c>
       <c r="T14" t="n">
-        <v>24.84391873418747</v>
+        <v>54.49874381889126</v>
       </c>
       <c r="U14" t="n">
-        <v>24.84391873418747</v>
+        <v>54.49874381889126</v>
       </c>
       <c r="V14" t="n">
-        <v>24.84391873418747</v>
+        <v>54.49874381889126</v>
       </c>
       <c r="W14" t="n">
-        <v>24.84391873418747</v>
+        <v>54.49874381889126</v>
       </c>
       <c r="X14" t="n">
-        <v>24.84391873418747</v>
+        <v>30.00767567823849</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.84391873418747</v>
+        <v>30.00767567823849</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="C15" t="n">
-        <v>79.68686933990632</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="D15" t="n">
-        <v>53.80778732512771</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="E15" t="n">
-        <v>27.92870531034908</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="F15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="G15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="H15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="I15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="J15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="K15" t="n">
-        <v>2.049623295570466</v>
+        <v>29.4543465955875</v>
       </c>
       <c r="L15" t="n">
-        <v>27.41371157825499</v>
+        <v>56.70649905318716</v>
       </c>
       <c r="M15" t="n">
-        <v>27.41371157825499</v>
+        <v>56.70649905318716</v>
       </c>
       <c r="N15" t="n">
-        <v>52.77779986093951</v>
+        <v>83.95865151078681</v>
       </c>
       <c r="O15" t="n">
-        <v>78.14188814362403</v>
+        <v>83.95865151078681</v>
       </c>
       <c r="P15" t="n">
-        <v>102.4811647785233</v>
+        <v>83.95865151078681</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.4811647785233</v>
+        <v>110.1097068993925</v>
       </c>
       <c r="R15" t="n">
-        <v>102.4811647785233</v>
+        <v>82.3042253591419</v>
       </c>
       <c r="S15" t="n">
-        <v>102.4811647785233</v>
+        <v>54.49874381889126</v>
       </c>
       <c r="T15" t="n">
-        <v>102.4811647785233</v>
+        <v>54.49874381889126</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4811647785233</v>
+        <v>54.49874381889126</v>
       </c>
       <c r="V15" t="n">
-        <v>102.4811647785233</v>
+        <v>26.69326227864061</v>
       </c>
       <c r="W15" t="n">
-        <v>102.4811647785233</v>
+        <v>26.69326227864061</v>
       </c>
       <c r="X15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="Y15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.202194137987851</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.68686933990632</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="C16" t="n">
-        <v>79.68686933990632</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="D16" t="n">
-        <v>79.68686933990632</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="E16" t="n">
-        <v>79.68686933990632</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="F16" t="n">
-        <v>79.68686933990632</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="G16" t="n">
-        <v>79.68686933990632</v>
+        <v>30.00767567823849</v>
       </c>
       <c r="H16" t="n">
-        <v>53.80778732512771</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="I16" t="n">
-        <v>27.92870531034908</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="J16" t="n">
-        <v>2.049623295570466</v>
+        <v>2.202194137987851</v>
       </c>
       <c r="K16" t="n">
-        <v>2.049623295570466</v>
+        <v>4.013972891694301</v>
       </c>
       <c r="L16" t="n">
-        <v>27.41371157825499</v>
+        <v>31.26612534929395</v>
       </c>
       <c r="M16" t="n">
-        <v>52.77779986093951</v>
+        <v>58.51827780689361</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362404</v>
+        <v>85.77043026449326</v>
       </c>
       <c r="O16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.1097068993925</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.1097068993925</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.4811647785233</v>
+        <v>85.61863875873978</v>
       </c>
       <c r="R16" t="n">
-        <v>102.4811647785233</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="S16" t="n">
-        <v>102.4811647785233</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="T16" t="n">
-        <v>102.4811647785233</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="U16" t="n">
-        <v>102.4811647785233</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="V16" t="n">
-        <v>102.4811647785233</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="W16" t="n">
-        <v>102.4811647785233</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="X16" t="n">
-        <v>102.4811647785233</v>
+        <v>57.81315721848914</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.68686933990632</v>
+        <v>57.81315721848914</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="C17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="D17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="E17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="F17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="G17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="H17" t="n">
-        <v>76.00285737395792</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="I17" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="J17" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="K17" t="n">
-        <v>74.60139623446406</v>
+        <v>91.04815859671453</v>
       </c>
       <c r="L17" t="n">
-        <v>143.6251179841084</v>
+        <v>171.8853087526761</v>
       </c>
       <c r="M17" t="n">
-        <v>143.6251179841084</v>
+        <v>171.8853087526761</v>
       </c>
       <c r="N17" t="n">
-        <v>143.6251179841084</v>
+        <v>171.8853087526761</v>
       </c>
       <c r="O17" t="n">
-        <v>209.8600024913429</v>
+        <v>256.1261283888886</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8837242409872</v>
+        <v>340.3669480251011</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.8837242409872</v>
+        <v>340.3669480251011</v>
       </c>
       <c r="R17" t="n">
-        <v>208.458541351849</v>
+        <v>264.6610874643665</v>
       </c>
       <c r="S17" t="n">
-        <v>138.0333584627109</v>
+        <v>178.7098379630783</v>
       </c>
       <c r="T17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="U17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="V17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="W17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="X17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
       <c r="Y17" t="n">
-        <v>138.0333584627109</v>
+        <v>92.75858846179018</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>146.4280402630961</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="C18" t="n">
-        <v>76.00285737395792</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="D18" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="E18" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="F18" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="G18" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="H18" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="I18" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="J18" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="K18" t="n">
-        <v>74.60139623446406</v>
+        <v>91.04815859671453</v>
       </c>
       <c r="L18" t="n">
-        <v>143.6251179841084</v>
+        <v>175.288978232927</v>
       </c>
       <c r="M18" t="n">
-        <v>209.8600024913429</v>
+        <v>175.288978232927</v>
       </c>
       <c r="N18" t="n">
-        <v>209.8600024913429</v>
+        <v>175.288978232927</v>
       </c>
       <c r="O18" t="n">
-        <v>209.8600024913429</v>
+        <v>186.7315698755593</v>
       </c>
       <c r="P18" t="n">
-        <v>209.8600024913429</v>
+        <v>270.9723895117718</v>
       </c>
       <c r="Q18" t="n">
-        <v>278.8837242409872</v>
+        <v>340.3669480251011</v>
       </c>
       <c r="R18" t="n">
-        <v>278.8837242409872</v>
+        <v>340.3669480251011</v>
       </c>
       <c r="S18" t="n">
-        <v>278.8837242409872</v>
+        <v>254.4156985238129</v>
       </c>
       <c r="T18" t="n">
-        <v>278.8837242409872</v>
+        <v>168.4644490225248</v>
       </c>
       <c r="U18" t="n">
-        <v>278.8837242409872</v>
+        <v>82.51319952123661</v>
       </c>
       <c r="V18" t="n">
-        <v>278.8837242409872</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="W18" t="n">
-        <v>278.8837242409872</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="X18" t="n">
-        <v>278.8837242409872</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="Y18" t="n">
-        <v>216.8532231522343</v>
+        <v>6.807338960502022</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="C19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="D19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="E19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="F19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="G19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="H19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="I19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="J19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="K19" t="n">
-        <v>7.339113439508708</v>
+        <v>22.05526568782932</v>
       </c>
       <c r="L19" t="n">
-        <v>72.77779696214007</v>
+        <v>86.66411433049359</v>
       </c>
       <c r="M19" t="n">
-        <v>111.9658351543623</v>
+        <v>163.1468761576671</v>
       </c>
       <c r="N19" t="n">
-        <v>180.9895569040066</v>
+        <v>244.1324504480547</v>
       </c>
       <c r="O19" t="n">
-        <v>243.4533920538242</v>
+        <v>305.7664507179052</v>
       </c>
       <c r="P19" t="n">
-        <v>278.8837242409872</v>
+        <v>340.3669480251011</v>
       </c>
       <c r="Q19" t="n">
-        <v>278.8837242409872</v>
+        <v>340.3669480251011</v>
       </c>
       <c r="R19" t="n">
-        <v>208.458541351849</v>
+        <v>340.3669480251011</v>
       </c>
       <c r="S19" t="n">
-        <v>208.458541351849</v>
+        <v>254.4156985238129</v>
       </c>
       <c r="T19" t="n">
-        <v>138.0333584627109</v>
+        <v>168.4644490225248</v>
       </c>
       <c r="U19" t="n">
-        <v>138.0333584627109</v>
+        <v>82.51319952123661</v>
       </c>
       <c r="V19" t="n">
-        <v>67.60817557357267</v>
+        <v>82.51319952123661</v>
       </c>
       <c r="W19" t="n">
-        <v>5.577674484819744</v>
+        <v>82.51319952123661</v>
       </c>
       <c r="X19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.577674484819744</v>
+        <v>6.807338960502022</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>149.6894398811856</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>851.5728495757114</v>
+        <v>850.7261656863459</v>
       </c>
       <c r="S20" t="n">
-        <v>851.5728495757114</v>
+        <v>850.7261656863459</v>
       </c>
       <c r="T20" t="n">
-        <v>851.5728495757114</v>
+        <v>663.4287802832862</v>
       </c>
       <c r="U20" t="n">
-        <v>636.5869931693858</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>393.1382165252857</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>393.1382165252857</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>149.6894398811856</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>149.6894398811856</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>452.8637580425507</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>316.4626863524361</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>316.4626863524361</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>195.277188937993</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>195.277188937993</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>94.59832111162096</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N21" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>851.8101010141643</v>
       </c>
-      <c r="O21" t="n">
-        <v>894.6625969973069</v>
-      </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>900.9395836545343</v>
       </c>
       <c r="S21" t="n">
-        <v>829.5384524416829</v>
+        <v>765.5741966962156</v>
       </c>
       <c r="T21" t="n">
-        <v>829.5384524416829</v>
+        <v>601.4395596459941</v>
       </c>
       <c r="U21" t="n">
-        <v>640.2134756584499</v>
+        <v>601.4395596459941</v>
       </c>
       <c r="V21" t="n">
-        <v>486.4123546596338</v>
+        <v>601.4395596459941</v>
       </c>
       <c r="W21" t="n">
-        <v>486.4123546596338</v>
+        <v>452.8637580425507</v>
       </c>
       <c r="X21" t="n">
-        <v>317.4594959344789</v>
+        <v>452.8637580425507</v>
       </c>
       <c r="Y21" t="n">
-        <v>148.5978386499029</v>
+        <v>452.8637580425507</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>625.5185371662348</v>
+        <v>75.5313876572536</v>
       </c>
       <c r="C22" t="n">
-        <v>625.5185371662348</v>
+        <v>75.5313876572536</v>
       </c>
       <c r="D22" t="n">
-        <v>625.5185371662348</v>
+        <v>75.5313876572536</v>
       </c>
       <c r="E22" t="n">
-        <v>625.5185371662348</v>
+        <v>75.5313876572536</v>
       </c>
       <c r="F22" t="n">
-        <v>625.5185371662348</v>
+        <v>75.5313876572536</v>
       </c>
       <c r="G22" t="n">
-        <v>625.5185371662348</v>
+        <v>75.5313876572536</v>
       </c>
       <c r="H22" t="n">
-        <v>625.5185371662348</v>
+        <v>75.5313876572536</v>
       </c>
       <c r="I22" t="n">
-        <v>625.5185371662348</v>
+        <v>75.5313876572536</v>
       </c>
       <c r="J22" t="n">
-        <v>625.5185371662348</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>641.5962987735292</v>
+        <v>34.52906983753999</v>
       </c>
       <c r="L22" t="n">
-        <v>707.0349822961605</v>
+        <v>99.13791848020426</v>
       </c>
       <c r="M22" t="n">
-        <v>784.347579003301</v>
+        <v>175.6206803073777</v>
       </c>
       <c r="N22" t="n">
-        <v>866.1629881736557</v>
+        <v>256.6062545977653</v>
       </c>
       <c r="O22" t="n">
-        <v>928.6268233234733</v>
+        <v>318.2402548676159</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>352.8407521748117</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>352.8407521748117</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>352.8407521748117</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>352.8407521748117</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>352.8407521748117</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>352.8407521748117</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>352.8407521748117</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>258.2720092097713</v>
       </c>
       <c r="X22" t="n">
-        <v>774.9662460929968</v>
+        <v>258.2720092097713</v>
       </c>
       <c r="Y22" t="n">
-        <v>768.2683605160965</v>
+        <v>75.5313876572536</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>144.3990273383478</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>144.3990273383478</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>791.8244135705643</v>
+        <v>790.9777296811988</v>
       </c>
       <c r="T23" t="n">
-        <v>791.8244135705643</v>
+        <v>603.680344278139</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>387.8478039824479</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>144.3990273383478</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>144.3990273383478</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>144.3990273383478</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>144.3990273383478</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>305.8012584898242</v>
+        <v>385.2541605088049</v>
       </c>
       <c r="C24" t="n">
-        <v>305.8012584898242</v>
+        <v>359.8316929769973</v>
       </c>
       <c r="D24" t="n">
-        <v>305.8012584898242</v>
+        <v>248.9492409067584</v>
       </c>
       <c r="E24" t="n">
-        <v>185.4624449647466</v>
+        <v>127.7637434923153</v>
       </c>
       <c r="F24" t="n">
-        <v>93.7516372222555</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>93.7516372222555</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>901.7862675438998</v>
+        <v>900.9395836545343</v>
       </c>
       <c r="S24" t="n">
-        <v>767.2675644749465</v>
+        <v>765.5741966962156</v>
       </c>
       <c r="T24" t="n">
-        <v>603.9796113140904</v>
+        <v>601.4395596459941</v>
       </c>
       <c r="U24" t="n">
-        <v>603.9796113140904</v>
+        <v>601.4395596459941</v>
       </c>
       <c r="V24" t="n">
-        <v>603.9796113140904</v>
+        <v>601.4395596459941</v>
       </c>
       <c r="W24" t="n">
-        <v>603.9796113140904</v>
+        <v>385.2541605088049</v>
       </c>
       <c r="X24" t="n">
-        <v>603.9796113140904</v>
+        <v>385.2541605088049</v>
       </c>
       <c r="Y24" t="n">
-        <v>435.1179540295144</v>
+        <v>385.2541605088049</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6077667657798</v>
+        <v>931.530388371354</v>
       </c>
       <c r="C25" t="n">
-        <v>868.6077667657798</v>
+        <v>931.530388371354</v>
       </c>
       <c r="D25" t="n">
-        <v>868.6077667657798</v>
+        <v>931.530388371354</v>
       </c>
       <c r="E25" t="n">
-        <v>868.6077667657798</v>
+        <v>931.530388371354</v>
       </c>
       <c r="F25" t="n">
-        <v>868.6077667657798</v>
+        <v>931.530388371354</v>
       </c>
       <c r="G25" t="n">
-        <v>868.6077667657798</v>
+        <v>931.530388371354</v>
       </c>
       <c r="H25" t="n">
-        <v>743.6405774305622</v>
+        <v>805.7165151467709</v>
       </c>
       <c r="I25" t="n">
-        <v>625.5185371662348</v>
+        <v>686.7477909930781</v>
       </c>
       <c r="J25" t="n">
-        <v>625.5185371662348</v>
+        <v>630.4975464460372</v>
       </c>
       <c r="K25" t="n">
-        <v>641.5962987735292</v>
+        <v>645.7454731733644</v>
       </c>
       <c r="L25" t="n">
-        <v>707.0349822961605</v>
+        <v>710.3543218160287</v>
       </c>
       <c r="M25" t="n">
-        <v>784.347579003301</v>
+        <v>786.8370836432022</v>
       </c>
       <c r="N25" t="n">
-        <v>866.1629881736557</v>
+        <v>867.8226579335898</v>
       </c>
       <c r="O25" t="n">
-        <v>928.6268233234733</v>
+        <v>929.4566582034404</v>
       </c>
       <c r="P25" t="n">
         <v>964.0571555106362</v>
@@ -6169,28 +6169,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>931.530388371354</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>931.530388371354</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>931.530388371354</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>931.530388371354</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>931.530388371354</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>931.530388371354</v>
       </c>
       <c r="X25" t="n">
-        <v>868.6077667657798</v>
+        <v>931.530388371354</v>
       </c>
       <c r="Y25" t="n">
-        <v>868.6077667657798</v>
+        <v>931.530388371354</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>658.3804048470972</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>658.3804048470972</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>658.3804048470972</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>414.9316282029972</v>
       </c>
       <c r="F26" t="n">
-        <v>174.6387406647415</v>
+        <v>414.9316282029972</v>
       </c>
       <c r="G26" t="n">
-        <v>174.6387406647415</v>
+        <v>414.9316282029972</v>
       </c>
       <c r="H26" t="n">
-        <v>174.6387406647415</v>
+        <v>171.4828515588971</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>813.3259722984776</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>813.3259722984776</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>658.3804048470972</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>658.3804048470972</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>658.3804048470972</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>658.3804048470972</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>658.3804048470972</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>500.3750887754903</v>
+        <v>345.7559005092901</v>
       </c>
       <c r="C27" t="n">
-        <v>383.6310424173334</v>
+        <v>345.7559005092901</v>
       </c>
       <c r="D27" t="n">
-        <v>291.9409438585291</v>
+        <v>257.2216910563301</v>
       </c>
       <c r="E27" t="n">
-        <v>189.9477999555206</v>
+        <v>158.3844362591659</v>
       </c>
       <c r="F27" t="n">
-        <v>189.9477999555206</v>
+        <v>72.25007849434212</v>
       </c>
       <c r="G27" t="n">
-        <v>108.461285640583</v>
+        <v>72.25007849434212</v>
       </c>
       <c r="H27" t="n">
-        <v>52.3364611506093</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>923.2878262718132</v>
       </c>
       <c r="S27" t="n">
-        <v>847.884122063752</v>
+        <v>810.2706819307733</v>
       </c>
       <c r="T27" t="n">
-        <v>847.884122063752</v>
+        <v>668.4842874978306</v>
       </c>
       <c r="U27" t="n">
-        <v>847.884122063752</v>
+        <v>668.4842874978306</v>
       </c>
       <c r="V27" t="n">
-        <v>847.884122063752</v>
+        <v>668.4842874978306</v>
       </c>
       <c r="W27" t="n">
-        <v>650.8910764379973</v>
+        <v>668.4842874978306</v>
       </c>
       <c r="X27" t="n">
-        <v>650.8910764379973</v>
+        <v>600.9311358777295</v>
       </c>
       <c r="Y27" t="n">
-        <v>500.3750887754903</v>
+        <v>453.5710373210669</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>313.4909796410249</v>
+        <v>258.3396092960045</v>
       </c>
       <c r="C28" t="n">
-        <v>201.7991078155649</v>
+        <v>149.8036265763888</v>
       </c>
       <c r="D28" t="n">
-        <v>108.9267795056761</v>
+        <v>149.8036265763888</v>
       </c>
       <c r="E28" t="n">
-        <v>108.9267795056761</v>
+        <v>149.8036265763888</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>149.8036265763888</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>149.8036265763888</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>149.8036265763888</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>53.18314503997476</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>53.33949551409695</v>
+        <v>56.43258242673497</v>
       </c>
       <c r="L28" t="n">
-        <v>136.7587698333182</v>
+        <v>142.9449436585942</v>
       </c>
       <c r="M28" t="n">
-        <v>232.0519573370486</v>
+        <v>241.3312180749627</v>
       </c>
       <c r="N28" t="n">
-        <v>331.8479573039932</v>
+        <v>344.2203049545453</v>
       </c>
       <c r="O28" t="n">
-        <v>412.2923832504007</v>
+        <v>427.7578178135908</v>
       </c>
       <c r="P28" t="n">
-        <v>465.7033062341536</v>
+        <v>484.2618277099816</v>
       </c>
       <c r="Q28" t="n">
-        <v>465.7033062341536</v>
+        <v>484.2618277099816</v>
       </c>
       <c r="R28" t="n">
-        <v>465.7033062341536</v>
+        <v>484.2618277099816</v>
       </c>
       <c r="S28" t="n">
-        <v>313.4909796410249</v>
+        <v>484.2618277099816</v>
       </c>
       <c r="T28" t="n">
-        <v>313.4909796410249</v>
+        <v>484.2618277099816</v>
       </c>
       <c r="U28" t="n">
-        <v>313.4909796410249</v>
+        <v>484.2618277099816</v>
       </c>
       <c r="V28" t="n">
-        <v>313.4909796410249</v>
+        <v>484.2618277099816</v>
       </c>
       <c r="W28" t="n">
-        <v>313.4909796410249</v>
+        <v>258.3396092960045</v>
       </c>
       <c r="X28" t="n">
-        <v>313.4909796410249</v>
+        <v>258.3396092960045</v>
       </c>
       <c r="Y28" t="n">
-        <v>313.4909796410249</v>
+        <v>258.3396092960045</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>415.2846348632521</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>415.2846348632521</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>415.2846348632521</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>652.6564883377828</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>415.2846348632521</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>415.2846348632521</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>415.2846348632521</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>73.7529229095453</v>
       </c>
       <c r="F30" t="n">
-        <v>42.61516673201375</v>
+        <v>42.61516673201373</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>131.7596096193613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>131.7596096193613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>131.7596096193613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>99.24331783255167</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>67.75017213022478</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>67.75017213022478</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6661,10 +6661,10 @@
         <v>143.2933906340542</v>
       </c>
       <c r="X31" t="n">
-        <v>143.2933906340542</v>
+        <v>30.70064153162031</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.7596096193613</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.7394820553692</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.2907054112691</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6737,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6762,10 +6762,10 @@
         <v>117.5935761194176</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954553</v>
+        <v>73.75292290954529</v>
       </c>
       <c r="F33" t="n">
-        <v>42.61516673201398</v>
+        <v>42.61516673201373</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,10 +6780,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
         <v>234.810827406191</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7470681078391</v>
+        <v>166.4794472361135</v>
       </c>
       <c r="C34" t="n">
-        <v>173.3834895684832</v>
+        <v>166.4794472361135</v>
       </c>
       <c r="D34" t="n">
-        <v>173.3834895684832</v>
+        <v>131.7596096193613</v>
       </c>
       <c r="E34" t="n">
-        <v>140.8671977816735</v>
+        <v>99.24331783255167</v>
       </c>
       <c r="F34" t="n">
-        <v>109.3740520793467</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="G34" t="n">
-        <v>109.3740520793467</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="H34" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6880,28 +6880,28 @@
         <v>856.1496427492314</v>
       </c>
       <c r="R34" t="n">
-        <v>792.4622108305023</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="S34" t="n">
-        <v>792.4622108305023</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="T34" t="n">
-        <v>792.4622108305023</v>
+        <v>741.2983744152375</v>
       </c>
       <c r="U34" t="n">
-        <v>618.6478718619535</v>
+        <v>651.434942270397</v>
       </c>
       <c r="V34" t="n">
-        <v>479.3601854516501</v>
+        <v>512.1472558600935</v>
       </c>
       <c r="W34" t="n">
-        <v>305.3398172102729</v>
+        <v>338.1268876187164</v>
       </c>
       <c r="X34" t="n">
-        <v>192.7470681078391</v>
+        <v>338.1268876187164</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.7470681078391</v>
+        <v>232.7311102707698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>627.3537130161266</v>
+      </c>
+      <c r="C35" t="n">
         <v>452.3709090732851</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
+        <v>452.3709090732851</v>
+      </c>
+      <c r="E35" t="n">
+        <v>452.3709090732851</v>
+      </c>
+      <c r="F35" t="n">
+        <v>452.3709090732851</v>
+      </c>
+      <c r="G35" t="n">
         <v>234.8012144439637</v>
-      </c>
-      <c r="D35" t="n">
-        <v>17.23151981464226</v>
-      </c>
-      <c r="E35" t="n">
-        <v>17.23151981464226</v>
-      </c>
-      <c r="F35" t="n">
-        <v>17.23151981464226</v>
-      </c>
-      <c r="G35" t="n">
-        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
         <v>17.23151981464226</v>
@@ -6938,19 +6938,19 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>23.55055379931807</v>
+        <v>113.210609091369</v>
       </c>
       <c r="L35" t="n">
-        <v>203.6264053839766</v>
+        <v>293.2864606760276</v>
       </c>
       <c r="M35" t="n">
-        <v>416.8664630901746</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N35" t="n">
-        <v>622.7209852974139</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O35" t="n">
-        <v>771.915935440062</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P35" t="n">
         <v>861.5759907321129</v>
@@ -6959,28 +6959,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>825.5898451123937</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>825.5898451123937</v>
+        <v>765.8414091072466</v>
       </c>
       <c r="T35" t="n">
-        <v>825.5898451123937</v>
+        <v>765.8414091072466</v>
       </c>
       <c r="U35" t="n">
-        <v>825.5898451123937</v>
+        <v>627.3537130161266</v>
       </c>
       <c r="V35" t="n">
-        <v>669.9406037026066</v>
+        <v>627.3537130161266</v>
       </c>
       <c r="W35" t="n">
-        <v>669.9406037026066</v>
+        <v>627.3537130161266</v>
       </c>
       <c r="X35" t="n">
-        <v>669.9406037026066</v>
+        <v>627.3537130161266</v>
       </c>
       <c r="Y35" t="n">
-        <v>452.3709090732851</v>
+        <v>627.3537130161266</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>194.4960395377561</v>
+        <v>177.0000319975266</v>
       </c>
       <c r="C36" t="n">
-        <v>135.4398120522125</v>
+        <v>117.9438045119831</v>
       </c>
       <c r="D36" t="n">
-        <v>101.9022041865448</v>
+        <v>84.40619664631529</v>
       </c>
       <c r="E36" t="n">
-        <v>58.06155097667272</v>
+        <v>40.56554343644326</v>
       </c>
       <c r="F36" t="n">
         <v>40.56554343644326</v>
@@ -7020,16 +7020,16 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>355.8291375786776</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M36" t="n">
-        <v>569.0691952848756</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N36" t="n">
-        <v>782.3092529910735</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O36" t="n">
-        <v>792.1814322187836</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P36" t="n">
         <v>792.1814322187836</v>
@@ -7044,22 +7044,22 @@
         <v>803.5554479783652</v>
       </c>
       <c r="T36" t="n">
-        <v>803.5554479783652</v>
+        <v>716.7656551327148</v>
       </c>
       <c r="U36" t="n">
-        <v>690.7286315103378</v>
+        <v>603.9388386646873</v>
       </c>
       <c r="V36" t="n">
-        <v>570.9733250741785</v>
+        <v>484.1835322285281</v>
       </c>
       <c r="W36" t="n">
-        <v>432.1327701415604</v>
+        <v>345.3429772959099</v>
       </c>
       <c r="X36" t="n">
-        <v>339.6780717316111</v>
+        <v>322.1820641913816</v>
       </c>
       <c r="Y36" t="n">
-        <v>247.3145747622406</v>
+        <v>229.8185672220112</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.3979377203551</v>
+        <v>139.8407205705858</v>
       </c>
       <c r="C37" t="n">
-        <v>187.8585565880317</v>
+        <v>139.8407205705858</v>
       </c>
       <c r="D37" t="n">
-        <v>153.1387189712795</v>
+        <v>139.8407205705858</v>
       </c>
       <c r="E37" t="n">
-        <v>120.6224271844698</v>
+        <v>107.3244287837762</v>
       </c>
       <c r="F37" t="n">
-        <v>120.6224271844698</v>
+        <v>107.3244287837762</v>
       </c>
       <c r="G37" t="n">
-        <v>66.33137104221618</v>
+        <v>107.3244287837762</v>
       </c>
       <c r="H37" t="n">
-        <v>66.33137104221618</v>
+        <v>58.85539976376413</v>
       </c>
       <c r="I37" t="n">
-        <v>24.70749109309432</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>45.38230821743963</v>
+        <v>37.90633693898757</v>
       </c>
       <c r="K37" t="n">
-        <v>136.435916749667</v>
+        <v>128.9599454712149</v>
       </c>
       <c r="L37" t="n">
-        <v>276.8504471972313</v>
+        <v>269.3744759187792</v>
       </c>
       <c r="M37" t="n">
-        <v>429.1388908293048</v>
+        <v>421.6629195508528</v>
       </c>
       <c r="N37" t="n">
-        <v>585.9301469245925</v>
+        <v>578.4541756461405</v>
       </c>
       <c r="O37" t="n">
-        <v>723.3698289993431</v>
+        <v>715.8938577208911</v>
       </c>
       <c r="P37" t="n">
-        <v>833.776008111439</v>
+        <v>826.300036832987</v>
       </c>
       <c r="Q37" t="n">
-        <v>861.5759907321129</v>
+        <v>854.1000194536609</v>
       </c>
       <c r="R37" t="n">
-        <v>861.5759907321129</v>
+        <v>854.1000194536609</v>
       </c>
       <c r="S37" t="n">
-        <v>861.5759907321129</v>
+        <v>844.9516406411956</v>
       </c>
       <c r="T37" t="n">
-        <v>746.7247223981192</v>
+        <v>844.9516406411956</v>
       </c>
       <c r="U37" t="n">
-        <v>572.9103834295704</v>
+        <v>671.1373016726468</v>
       </c>
       <c r="V37" t="n">
-        <v>433.622697019267</v>
+        <v>531.8496152623434</v>
       </c>
       <c r="W37" t="n">
-        <v>259.6023287778899</v>
+        <v>357.8292470209662</v>
       </c>
       <c r="X37" t="n">
-        <v>241.3979377203551</v>
+        <v>245.2364979185324</v>
       </c>
       <c r="Y37" t="n">
-        <v>241.3979377203551</v>
+        <v>139.8407205705858</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>332.0063213053559</v>
+        <v>638.3041535073942</v>
       </c>
       <c r="C38" t="n">
-        <v>332.0063213053559</v>
+        <v>448.3655391799236</v>
       </c>
       <c r="D38" t="n">
-        <v>332.0063213053559</v>
+        <v>232.7222440760743</v>
       </c>
       <c r="E38" t="n">
-        <v>332.0063213053559</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="F38" t="n">
-        <v>332.0063213053559</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="G38" t="n">
-        <v>332.0063213053559</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="H38" t="n">
-        <v>114.4366266760345</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="I38" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="J38" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="K38" t="n">
-        <v>120.2465257255646</v>
+        <v>120.0939548831472</v>
       </c>
       <c r="L38" t="n">
-        <v>300.3223773102232</v>
+        <v>300.1698064678058</v>
       </c>
       <c r="M38" t="n">
-        <v>513.5624350164212</v>
+        <v>511.5217999990886</v>
       </c>
       <c r="N38" t="n">
-        <v>719.4169572236606</v>
+        <v>615.0924431765445</v>
       </c>
       <c r="O38" t="n">
-        <v>771.915935440062</v>
+        <v>764.2873933191926</v>
       </c>
       <c r="P38" t="n">
-        <v>861.5759907321129</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="Q38" t="n">
-        <v>861.5759907321129</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="R38" t="n">
-        <v>825.5898451123937</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="S38" t="n">
-        <v>729.8552634875274</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="T38" t="n">
-        <v>619.9027222890388</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="U38" t="n">
-        <v>619.9027222890388</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="V38" t="n">
-        <v>404.2366367410517</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="W38" t="n">
-        <v>404.2366367410517</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="X38" t="n">
-        <v>404.2366367410517</v>
+        <v>638.3041535073942</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2366367410517</v>
+        <v>638.3041535073942</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>208.1377881750582</v>
+        <v>148.9289898470973</v>
       </c>
       <c r="C39" t="n">
-        <v>149.0815606895146</v>
+        <v>148.9289898470973</v>
       </c>
       <c r="D39" t="n">
-        <v>115.5439528238469</v>
+        <v>115.3913819814295</v>
       </c>
       <c r="E39" t="n">
-        <v>71.70329961397482</v>
+        <v>71.55072877155743</v>
       </c>
       <c r="F39" t="n">
-        <v>40.56554343644326</v>
+        <v>40.41297259402588</v>
       </c>
       <c r="G39" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="H39" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="I39" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="J39" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="K39" t="n">
-        <v>39.21234000016818</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="L39" t="n">
-        <v>252.4523977063661</v>
+        <v>228.4309425035077</v>
       </c>
       <c r="M39" t="n">
-        <v>465.6924554125641</v>
+        <v>439.7829360347904</v>
       </c>
       <c r="N39" t="n">
-        <v>465.6924554125641</v>
+        <v>601.9094124845633</v>
       </c>
       <c r="O39" t="n">
-        <v>678.932513118762</v>
+        <v>601.9094124845633</v>
       </c>
       <c r="P39" t="n">
-        <v>861.5759907321129</v>
+        <v>784.5528900979142</v>
       </c>
       <c r="Q39" t="n">
-        <v>861.5759907321129</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="R39" t="n">
-        <v>861.5759907321129</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="S39" t="n">
-        <v>803.5554479783652</v>
+        <v>795.9269058574959</v>
       </c>
       <c r="T39" t="n">
-        <v>716.7656551327148</v>
+        <v>709.1371130118454</v>
       </c>
       <c r="U39" t="n">
-        <v>603.9388386646873</v>
+        <v>596.3102965438179</v>
       </c>
       <c r="V39" t="n">
-        <v>484.1835322285281</v>
+        <v>476.5549901076587</v>
       </c>
       <c r="W39" t="n">
-        <v>345.3429772959099</v>
+        <v>337.7144351750405</v>
       </c>
       <c r="X39" t="n">
-        <v>345.3429772959099</v>
+        <v>294.1110220409522</v>
       </c>
       <c r="Y39" t="n">
-        <v>260.9563233995427</v>
+        <v>201.7475250715818</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>206.047277896041</v>
+        <v>253.5910314046602</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5078967637176</v>
+        <v>200.0516502723368</v>
       </c>
       <c r="D40" t="n">
-        <v>152.5078967637176</v>
+        <v>165.3318126555845</v>
       </c>
       <c r="E40" t="n">
-        <v>119.991604976908</v>
+        <v>132.8155208687749</v>
       </c>
       <c r="F40" t="n">
-        <v>119.991604976908</v>
+        <v>101.322375166448</v>
       </c>
       <c r="G40" t="n">
-        <v>65.70054883465431</v>
+        <v>65.54797799223692</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07894897222487</v>
       </c>
       <c r="J40" t="n">
-        <v>37.90633693898757</v>
+        <v>37.75376609657019</v>
       </c>
       <c r="K40" t="n">
-        <v>128.9599454712149</v>
+        <v>128.8073746287975</v>
       </c>
       <c r="L40" t="n">
-        <v>269.3744759187792</v>
+        <v>269.2219050763618</v>
       </c>
       <c r="M40" t="n">
-        <v>421.6629195508528</v>
+        <v>421.5103487084353</v>
       </c>
       <c r="N40" t="n">
-        <v>578.4541756461405</v>
+        <v>578.3016048037231</v>
       </c>
       <c r="O40" t="n">
-        <v>715.8938577208911</v>
+        <v>715.7412868784737</v>
       </c>
       <c r="P40" t="n">
-        <v>826.300036832987</v>
+        <v>826.1474659905696</v>
       </c>
       <c r="Q40" t="n">
-        <v>854.1000194536609</v>
+        <v>853.9474486112435</v>
       </c>
       <c r="R40" t="n">
-        <v>854.1000194536609</v>
+        <v>790.2600166925145</v>
       </c>
       <c r="S40" t="n">
-        <v>743.2174292927068</v>
+        <v>679.3774265315603</v>
       </c>
       <c r="T40" t="n">
-        <v>743.2174292927068</v>
+        <v>564.5261581975665</v>
       </c>
       <c r="U40" t="n">
-        <v>569.403090324158</v>
+        <v>564.5261581975665</v>
       </c>
       <c r="V40" t="n">
-        <v>430.1154039138546</v>
+        <v>425.2384717872631</v>
       </c>
       <c r="W40" t="n">
-        <v>256.0950356724775</v>
+        <v>425.2384717872631</v>
       </c>
       <c r="X40" t="n">
-        <v>256.0950356724775</v>
+        <v>425.2384717872631</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.047277896041</v>
+        <v>319.8426944393165</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>685.1734312696491</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="C41" t="n">
-        <v>685.1734312696491</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="D41" t="n">
-        <v>685.1734312696491</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="E41" t="n">
-        <v>512.1498375146872</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="F41" t="n">
-        <v>359.7506561353168</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="G41" t="n">
-        <v>186.7270623803549</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="H41" t="n">
-        <v>13.70346862539298</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="I41" t="n">
-        <v>13.70346862539298</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="J41" t="n">
-        <v>13.70346862539298</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="K41" t="n">
-        <v>13.70346862539298</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="L41" t="n">
-        <v>183.2838928646311</v>
+        <v>166.8371305023806</v>
       </c>
       <c r="M41" t="n">
-        <v>352.8643171038693</v>
+        <v>321.2004568550506</v>
       </c>
       <c r="N41" t="n">
-        <v>522.4447413431074</v>
+        <v>475.5637832077205</v>
       </c>
       <c r="O41" t="n">
-        <v>595.5133759775981</v>
+        <v>534.0301521934841</v>
       </c>
       <c r="P41" t="n">
-        <v>685.1734312696491</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="Q41" t="n">
-        <v>685.1734312696491</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="R41" t="n">
-        <v>685.1734312696491</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="S41" t="n">
-        <v>685.1734312696491</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="T41" t="n">
-        <v>685.1734312696491</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="U41" t="n">
-        <v>685.1734312696491</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="V41" t="n">
-        <v>685.1734312696491</v>
+        <v>466.1926803427232</v>
       </c>
       <c r="W41" t="n">
-        <v>685.1734312696491</v>
+        <v>308.6951531999113</v>
       </c>
       <c r="X41" t="n">
-        <v>685.1734312696491</v>
+        <v>169.9713312925226</v>
       </c>
       <c r="Y41" t="n">
-        <v>685.1734312696491</v>
+        <v>12.4738041497107</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.1535850578958</v>
+        <v>142.6092873922366</v>
       </c>
       <c r="C42" t="n">
-        <v>85.00275791482207</v>
+        <v>142.6092873922366</v>
       </c>
       <c r="D42" t="n">
-        <v>85.00275791482207</v>
+        <v>83.97450687382883</v>
       </c>
       <c r="E42" t="n">
-        <v>85.00275791482207</v>
+        <v>83.97450687382883</v>
       </c>
       <c r="F42" t="n">
-        <v>32.77040207976034</v>
+        <v>83.97450687382883</v>
       </c>
       <c r="G42" t="n">
-        <v>32.77040207976034</v>
+        <v>35.54331059928786</v>
       </c>
       <c r="H42" t="n">
-        <v>13.70346862539298</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="I42" t="n">
-        <v>13.70346862539298</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="J42" t="n">
-        <v>13.70346862539298</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="K42" t="n">
-        <v>13.70346862539298</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="L42" t="n">
-        <v>183.2838928646311</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="M42" t="n">
-        <v>352.8643171038693</v>
+        <v>160.6002284275254</v>
       </c>
       <c r="N42" t="n">
-        <v>446.1984485170816</v>
+        <v>314.9635547801953</v>
       </c>
       <c r="O42" t="n">
-        <v>446.1984485170816</v>
+        <v>469.3268811328652</v>
       </c>
       <c r="P42" t="n">
-        <v>615.7788727563197</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="Q42" t="n">
-        <v>685.1734312696491</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="R42" t="n">
-        <v>678.3061039605881</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="S42" t="n">
-        <v>659.9805268456048</v>
+        <v>540.5724920790475</v>
       </c>
       <c r="T42" t="n">
-        <v>552.0961343424242</v>
+        <v>522.8750015011722</v>
       </c>
       <c r="U42" t="n">
-        <v>552.0961343424242</v>
+        <v>522.8750015011722</v>
       </c>
       <c r="V42" t="n">
-        <v>552.0961343424242</v>
+        <v>378.022522412273</v>
       </c>
       <c r="W42" t="n">
-        <v>392.1609797522759</v>
+        <v>220.5249952694611</v>
       </c>
       <c r="X42" t="n">
-        <v>278.6116816847964</v>
+        <v>220.5249952694611</v>
       </c>
       <c r="Y42" t="n">
-        <v>165.1535850578958</v>
+        <v>220.5249952694611</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>274.9821241537109</v>
+        <v>237.4596347845203</v>
       </c>
       <c r="C43" t="n">
-        <v>274.9821241537109</v>
+        <v>226.021125967733</v>
       </c>
       <c r="D43" t="n">
-        <v>274.9821241537109</v>
+        <v>226.021125967733</v>
       </c>
       <c r="E43" t="n">
-        <v>221.371232709371</v>
+        <v>226.021125967733</v>
       </c>
       <c r="F43" t="n">
-        <v>221.371232709371</v>
+        <v>169.4308076126662</v>
       </c>
       <c r="G43" t="n">
-        <v>145.9855769095872</v>
+        <v>90.04257881767253</v>
       </c>
       <c r="H43" t="n">
-        <v>76.42194823204501</v>
+        <v>16.4763771449205</v>
       </c>
       <c r="I43" t="n">
-        <v>13.70346862539298</v>
+        <v>16.4763771449205</v>
       </c>
       <c r="J43" t="n">
-        <v>13.70346862539297</v>
+        <v>12.4738041497107</v>
       </c>
       <c r="K43" t="n">
-        <v>84.08226003327491</v>
+        <v>78.9296737649876</v>
       </c>
       <c r="L43" t="n">
-        <v>203.8219733564939</v>
+        <v>194.7464652956015</v>
       </c>
       <c r="M43" t="n">
-        <v>335.4355998642221</v>
+        <v>322.4371700107246</v>
       </c>
       <c r="N43" t="n">
-        <v>471.5520388351646</v>
+        <v>421.8375804288659</v>
       </c>
       <c r="O43" t="n">
-        <v>588.3169037855698</v>
+        <v>534.6795235866661</v>
       </c>
       <c r="P43" t="n">
-        <v>678.0482657733205</v>
+        <v>620.4879637818116</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.1734312696491</v>
+        <v>623.6902074855351</v>
       </c>
       <c r="R43" t="n">
-        <v>685.1734312696491</v>
+        <v>534.905602914066</v>
       </c>
       <c r="S43" t="n">
-        <v>553.1962414511647</v>
+        <v>534.905602914066</v>
       </c>
       <c r="T43" t="n">
-        <v>417.2503734596407</v>
+        <v>394.9571619273322</v>
       </c>
       <c r="U43" t="n">
-        <v>417.2503734596407</v>
+        <v>394.9571619273322</v>
       </c>
       <c r="V43" t="n">
-        <v>362.3283868458972</v>
+        <v>394.9571619273322</v>
       </c>
       <c r="W43" t="n">
-        <v>362.3283868458972</v>
+        <v>237.4596347845203</v>
       </c>
       <c r="X43" t="n">
-        <v>362.3283868458972</v>
+        <v>237.4596347845203</v>
       </c>
       <c r="Y43" t="n">
-        <v>362.3283868458972</v>
+        <v>237.4596347845203</v>
       </c>
     </row>
     <row r="44">
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>244.6749789590202</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>261.386706164618</v>
       </c>
       <c r="M11" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P11" t="n">
-        <v>256.8532869499004</v>
+        <v>256.8532869499003</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>168.2165356390753</v>
@@ -8787,7 +8787,7 @@
         <v>158.5595353283699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>247.6172777698287</v>
       </c>
       <c r="L14" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>257.8736599521209</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>256.940490321439</v>
       </c>
       <c r="O14" t="n">
-        <v>255.7185026163176</v>
+        <v>256.5134188849248</v>
       </c>
       <c r="P14" t="n">
-        <v>255.8181236693092</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>165.3688656992071</v>
       </c>
       <c r="L15" t="n">
-        <v>164.174670974505</v>
+        <v>166.0818065047223</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>156.9620032779641</v>
+        <v>158.8691388081814</v>
       </c>
       <c r="O15" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>166.3969815492596</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,13 +9088,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4121030060864</v>
       </c>
       <c r="M16" t="n">
-        <v>164.5460751422359</v>
+        <v>166.4532106724532</v>
       </c>
       <c r="N16" t="n">
-        <v>153.305835659864</v>
+        <v>155.2129711900813</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>289.8107821052274</v>
+        <v>305.1815880512558</v>
       </c>
       <c r="L17" t="n">
-        <v>305.4873460302341</v>
+        <v>317.420101996211</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
@@ -9176,10 +9176,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>297.002135166368</v>
+        <v>315.189948427962</v>
       </c>
       <c r="P17" t="n">
-        <v>300.9539268155164</v>
+        <v>316.3247327615448</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>207.5623700346058</v>
+        <v>222.9331759806342</v>
       </c>
       <c r="L18" t="n">
-        <v>208.275310840121</v>
+        <v>223.6461167861494</v>
       </c>
       <c r="M18" t="n">
-        <v>209.0379576666996</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>154.1544178208406</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>219.0661444206055</v>
       </c>
       <c r="Q18" t="n">
-        <v>209.7027051462683</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9720,10 +9720,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9957,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>226.4727136557642</v>
+        <v>317.0384260719773</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>353.9483774629024</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5280316050465</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N36" t="n">
         <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>152.5681426542525</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>445.740230910301</v>
+        <v>443.8330953800836</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>334.0298748869505</v>
       </c>
       <c r="O38" t="n">
-        <v>283.1274823473447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>160.0442876466074</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>353.9483774629024</v>
+        <v>352.0412419326851</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5280316050465</v>
+        <v>355.6208960748292</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>295.1058297093665</v>
       </c>
       <c r="O39" t="n">
-        <v>357.9902421274727</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,16 +11063,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>407.0597727873995</v>
+        <v>391.688966841371</v>
       </c>
       <c r="M41" t="n">
-        <v>401.639591044685</v>
+        <v>386.2687850986565</v>
       </c>
       <c r="N41" t="n">
-        <v>400.7064214140032</v>
+        <v>385.3356154679747</v>
       </c>
       <c r="O41" t="n">
-        <v>303.9049130726875</v>
+        <v>289.155149791145</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>309.8477375972865</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>313.4273917394306</v>
+        <v>291.7566847076897</v>
       </c>
       <c r="N42" t="n">
-        <v>225.6186125007195</v>
+        <v>287.2642639547171</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>298.5187963158282</v>
       </c>
       <c r="P42" t="n">
-        <v>305.2677652317425</v>
+        <v>289.896959285714</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.0124009283741</v>
+        <v>354.3921097337433</v>
       </c>
       <c r="C11" t="n">
-        <v>362.551451035901</v>
+        <v>336.9311598412702</v>
       </c>
       <c r="D11" t="n">
-        <v>326.3413096909456</v>
+        <v>351.9616008855764</v>
       </c>
       <c r="E11" t="n">
         <v>379.2089293371553</v>
@@ -23273,13 +23273,13 @@
         <v>412.5812967800285</v>
       </c>
       <c r="H11" t="n">
-        <v>336.7533613806606</v>
+        <v>311.1330701860298</v>
       </c>
       <c r="I11" t="n">
         <v>207.7544488352994</v>
       </c>
       <c r="J11" t="n">
-        <v>9.227848619506005</v>
+        <v>9.227848619506004</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>7.269258479438291</v>
       </c>
       <c r="R11" t="n">
         <v>147.1476772060432</v>
@@ -23318,13 +23318,13 @@
         <v>325.0308177350284</v>
       </c>
       <c r="W11" t="n">
-        <v>320.8992367876756</v>
+        <v>346.5195279823065</v>
       </c>
       <c r="X11" t="n">
-        <v>341.3893687487317</v>
+        <v>367.0096599433625</v>
       </c>
       <c r="Y11" t="n">
-        <v>368.2194039161545</v>
+        <v>360.9501454367162</v>
       </c>
     </row>
     <row r="12">
@@ -23346,7 +23346,7 @@
         <v>154.9236397202944</v>
       </c>
       <c r="F12" t="n">
-        <v>119.7814191740465</v>
+        <v>142.3477716582774</v>
       </c>
       <c r="G12" t="n">
         <v>134.6220764281041</v>
@@ -23355,7 +23355,7 @@
         <v>109.51400350139</v>
       </c>
       <c r="I12" t="n">
-        <v>61.05490092167773</v>
+        <v>86.67519211630857</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>71.81610222290578</v>
+        <v>97.43639341753662</v>
       </c>
       <c r="S12" t="n">
         <v>168.9617303687313</v>
@@ -23391,16 +23391,16 @@
         <v>197.4432879597151</v>
       </c>
       <c r="U12" t="n">
-        <v>223.2199413458683</v>
+        <v>200.6535888616375</v>
       </c>
       <c r="V12" t="n">
         <v>230.0791464143188</v>
       </c>
       <c r="W12" t="n">
-        <v>248.9735424258131</v>
+        <v>223.3532512311823</v>
       </c>
       <c r="X12" t="n">
-        <v>203.051544468371</v>
+        <v>177.4312532737401</v>
       </c>
       <c r="Y12" t="n">
         <v>177.340963847567</v>
@@ -23416,7 +23416,7 @@
         <v>177.1105394468308</v>
       </c>
       <c r="C13" t="n">
-        <v>164.5253803635213</v>
+        <v>161.5070789700669</v>
       </c>
       <c r="D13" t="n">
         <v>145.8940322831058</v>
@@ -23434,10 +23434,10 @@
         <v>133.8854405777022</v>
       </c>
       <c r="I13" t="n">
-        <v>127.1087429975209</v>
+        <v>127.108742997521</v>
       </c>
       <c r="J13" t="n">
-        <v>65.01744818693544</v>
+        <v>65.01744818693545</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>249.4162025887215</v>
       </c>
       <c r="W13" t="n">
-        <v>280.78325620803</v>
+        <v>283.8015576014845</v>
       </c>
       <c r="X13" t="n">
         <v>222.9882146539306</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2241865979065</v>
+        <v>345.0624036483783</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7632367054334</v>
+        <v>327.6014537559053</v>
       </c>
       <c r="D14" t="n">
-        <v>293.607034070878</v>
+        <v>317.0116036055807</v>
       </c>
       <c r="E14" t="n">
-        <v>343.4207150066877</v>
+        <v>344.2589320571595</v>
       </c>
       <c r="F14" t="n">
-        <v>368.3663906761373</v>
+        <v>369.2046077266091</v>
       </c>
       <c r="G14" t="n">
-        <v>376.7930824495609</v>
+        <v>350.1038727751846</v>
       </c>
       <c r="H14" t="n">
-        <v>300.965147050193</v>
+        <v>301.8033641006649</v>
       </c>
       <c r="I14" t="n">
-        <v>171.9662345048318</v>
+        <v>172.8044515553036</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>85.73917168094474</v>
+        <v>84.67025320119924</v>
       </c>
       <c r="S14" t="n">
-        <v>144.8901233260404</v>
+        <v>143.8212048462949</v>
       </c>
       <c r="T14" t="n">
-        <v>158.9659033039264</v>
+        <v>185.4244115490291</v>
       </c>
       <c r="U14" t="n">
-        <v>212.8359978422624</v>
+        <v>213.6742148927342</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2426034045608</v>
+        <v>290.0808204550326</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7313136518389</v>
+        <v>311.5695307023107</v>
       </c>
       <c r="X14" t="n">
-        <v>331.2214456128949</v>
+        <v>307.8135052041205</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7282835904795</v>
+        <v>348.5665006409513</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>128.0235285842932</v>
+        <v>128.861745634765</v>
       </c>
       <c r="C15" t="n">
-        <v>111.6324914385108</v>
+        <v>135.0370609732134</v>
       </c>
       <c r="D15" t="n">
-        <v>83.31511930443381</v>
+        <v>109.7736275495364</v>
       </c>
       <c r="E15" t="n">
-        <v>93.515134195196</v>
+        <v>119.9736424402986</v>
       </c>
       <c r="F15" t="n">
-        <v>80.93926613317893</v>
+        <v>107.3977743782816</v>
       </c>
       <c r="G15" t="n">
-        <v>98.83386209763651</v>
+        <v>99.67207914810832</v>
       </c>
       <c r="H15" t="n">
-        <v>73.72578917092234</v>
+        <v>74.56400622139415</v>
       </c>
       <c r="I15" t="n">
-        <v>50.88697778584095</v>
+        <v>51.72519483631277</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>61.64817908706901</v>
+        <v>34.95896941269269</v>
       </c>
       <c r="S15" t="n">
-        <v>133.1735160382637</v>
+        <v>106.4843063638874</v>
       </c>
       <c r="T15" t="n">
-        <v>161.6550736292475</v>
+        <v>162.4932906797193</v>
       </c>
       <c r="U15" t="n">
-        <v>187.4317270154007</v>
+        <v>188.2699440658725</v>
       </c>
       <c r="V15" t="n">
-        <v>194.2909320838511</v>
+        <v>167.6017224094748</v>
       </c>
       <c r="W15" t="n">
-        <v>213.1853280953455</v>
+        <v>214.0235451458173</v>
       </c>
       <c r="X15" t="n">
-        <v>167.2633301379034</v>
+        <v>143.8553897291289</v>
       </c>
       <c r="Y15" t="n">
-        <v>167.1730407117302</v>
+        <v>168.011257762202</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3223251163632</v>
+        <v>142.160542166835</v>
       </c>
       <c r="C16" t="n">
-        <v>128.7371660330537</v>
+        <v>129.5753830835255</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1058179526382</v>
+        <v>110.94403500311</v>
       </c>
       <c r="E16" t="n">
-        <v>107.924307580995</v>
+        <v>108.7625246314669</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9113929573571</v>
+        <v>107.7496100078289</v>
       </c>
       <c r="G16" t="n">
-        <v>129.4813242928846</v>
+        <v>102.7921146185083</v>
       </c>
       <c r="H16" t="n">
-        <v>98.09722624723463</v>
+        <v>97.02830776748914</v>
       </c>
       <c r="I16" t="n">
-        <v>91.32052866705334</v>
+        <v>117.779036912156</v>
       </c>
       <c r="J16" t="n">
-        <v>29.22923385646782</v>
+        <v>55.68774210157046</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.65238818612026</v>
+        <v>24.24444777734585</v>
       </c>
       <c r="R16" t="n">
-        <v>138.7837363115954</v>
+        <v>112.094526637219</v>
       </c>
       <c r="S16" t="n">
-        <v>185.5069429713981</v>
+        <v>186.34516002187</v>
       </c>
       <c r="T16" t="n">
-        <v>189.4359343627074</v>
+        <v>190.2741514131792</v>
       </c>
       <c r="U16" t="n">
-        <v>247.8093742909168</v>
+        <v>248.6475913413886</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6279882582539</v>
+        <v>214.4662053087257</v>
       </c>
       <c r="W16" t="n">
-        <v>248.0133432710169</v>
+        <v>248.8515603214887</v>
       </c>
       <c r="X16" t="n">
-        <v>187.200000323463</v>
+        <v>188.0382173739349</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.5086458022898</v>
+        <v>180.9132153369925</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>344.2241865979065</v>
+        <v>345.0624036483783</v>
       </c>
       <c r="C17" t="n">
-        <v>326.7632367054334</v>
+        <v>327.6014537559053</v>
       </c>
       <c r="D17" t="n">
-        <v>316.1733865551088</v>
+        <v>317.0116036055807</v>
       </c>
       <c r="E17" t="n">
-        <v>343.4207150066877</v>
+        <v>344.2589320571595</v>
       </c>
       <c r="F17" t="n">
-        <v>368.3663906761373</v>
+        <v>369.2046077266091</v>
       </c>
       <c r="G17" t="n">
-        <v>376.7930824495609</v>
+        <v>377.6312995000328</v>
       </c>
       <c r="H17" t="n">
-        <v>239.5549509723276</v>
+        <v>301.8033641006649</v>
       </c>
       <c r="I17" t="n">
-        <v>102.245303444585</v>
+        <v>87.71271454902835</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>41.63853181532876</v>
+        <v>37.24887797092018</v>
       </c>
       <c r="S17" t="n">
-        <v>100.7894834604244</v>
+        <v>86.25689456486775</v>
       </c>
       <c r="T17" t="n">
-        <v>184.5861944985572</v>
+        <v>100.3326745427538</v>
       </c>
       <c r="U17" t="n">
-        <v>212.8359978422624</v>
+        <v>213.6742148927342</v>
       </c>
       <c r="V17" t="n">
-        <v>289.2426034045608</v>
+        <v>290.0808204550326</v>
       </c>
       <c r="W17" t="n">
-        <v>310.7313136518389</v>
+        <v>311.5695307023107</v>
       </c>
       <c r="X17" t="n">
-        <v>331.2214456128949</v>
+        <v>332.0596626633667</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.7282835904795</v>
+        <v>348.5665006409513</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.30259752404642</v>
+        <v>128.861745634765</v>
       </c>
       <c r="C18" t="n">
-        <v>64.47791286249482</v>
+        <v>135.0370609732134</v>
       </c>
       <c r="D18" t="n">
-        <v>39.21447943881783</v>
+        <v>109.7736275495364</v>
       </c>
       <c r="E18" t="n">
-        <v>119.1354253898268</v>
+        <v>119.9736424402986</v>
       </c>
       <c r="F18" t="n">
-        <v>106.5595573278098</v>
+        <v>107.3977743782816</v>
       </c>
       <c r="G18" t="n">
-        <v>98.83386209763651</v>
+        <v>99.67207914810832</v>
       </c>
       <c r="H18" t="n">
-        <v>73.72578917092234</v>
+        <v>74.56400622139415</v>
       </c>
       <c r="I18" t="n">
-        <v>50.88697778584095</v>
+        <v>51.72519483631277</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.64817908706901</v>
+        <v>62.48639613754082</v>
       </c>
       <c r="S18" t="n">
-        <v>133.1735160382637</v>
+        <v>48.91999608246026</v>
       </c>
       <c r="T18" t="n">
-        <v>161.6550736292475</v>
+        <v>77.40155367344401</v>
       </c>
       <c r="U18" t="n">
-        <v>187.4317270154007</v>
+        <v>103.1782070595972</v>
       </c>
       <c r="V18" t="n">
-        <v>194.2909320838511</v>
+        <v>120.1803471791957</v>
       </c>
       <c r="W18" t="n">
-        <v>213.1853280953455</v>
+        <v>214.0235451458173</v>
       </c>
       <c r="X18" t="n">
-        <v>167.2633301379034</v>
+        <v>168.1015471883752</v>
       </c>
       <c r="Y18" t="n">
-        <v>105.7628446338649</v>
+        <v>168.011257762202</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.3223251163632</v>
+        <v>142.160542166835</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7371660330537</v>
+        <v>129.5753830835255</v>
       </c>
       <c r="D19" t="n">
-        <v>110.1058179526382</v>
+        <v>110.94403500311</v>
       </c>
       <c r="E19" t="n">
-        <v>107.924307580995</v>
+        <v>108.7625246314669</v>
       </c>
       <c r="F19" t="n">
-        <v>106.9113929573571</v>
+        <v>107.7496100078289</v>
       </c>
       <c r="G19" t="n">
-        <v>129.4813242928846</v>
+        <v>130.3195413433564</v>
       </c>
       <c r="H19" t="n">
-        <v>123.7175174418655</v>
+        <v>124.5557344923373</v>
       </c>
       <c r="I19" t="n">
-        <v>116.9408198616842</v>
+        <v>117.779036912156</v>
       </c>
       <c r="J19" t="n">
-        <v>54.84952505109865</v>
+        <v>55.68774210157046</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.65238818612026</v>
+        <v>48.49060523659207</v>
       </c>
       <c r="R19" t="n">
-        <v>69.06280525134856</v>
+        <v>139.6219533620672</v>
       </c>
       <c r="S19" t="n">
-        <v>185.5069429713981</v>
+        <v>101.2534230155947</v>
       </c>
       <c r="T19" t="n">
-        <v>119.7150033024606</v>
+        <v>105.1824144069039</v>
       </c>
       <c r="U19" t="n">
-        <v>247.8093742909168</v>
+        <v>163.5558543351133</v>
       </c>
       <c r="V19" t="n">
-        <v>143.9070571980071</v>
+        <v>214.4662053087257</v>
       </c>
       <c r="W19" t="n">
-        <v>186.6031471931515</v>
+        <v>248.8515603214887</v>
       </c>
       <c r="X19" t="n">
-        <v>187.200000323463</v>
+        <v>113.0894154188076</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.0749982865207</v>
+        <v>180.9132153369925</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>344.2241865979065</v>
+        <v>345.0624036483783</v>
       </c>
       <c r="C20" t="n">
-        <v>197.6590229021702</v>
+        <v>327.6014537559053</v>
       </c>
       <c r="D20" t="n">
-        <v>316.1733865551088</v>
+        <v>317.0116036055807</v>
       </c>
       <c r="E20" t="n">
-        <v>343.4207150066877</v>
+        <v>103.2446431795004</v>
       </c>
       <c r="F20" t="n">
-        <v>368.3663906761373</v>
+        <v>128.1903188489501</v>
       </c>
       <c r="G20" t="n">
-        <v>376.7930824495609</v>
+        <v>377.6312995000328</v>
       </c>
       <c r="H20" t="n">
-        <v>300.965147050193</v>
+        <v>301.8033641006649</v>
       </c>
       <c r="I20" t="n">
-        <v>171.9662345048318</v>
+        <v>172.8044515553036</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24017,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>170.5104145206712</v>
+        <v>171.348631571143</v>
       </c>
       <c r="T20" t="n">
-        <v>184.5861944985572</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>57.99663184670962</v>
       </c>
       <c r="V20" t="n">
-        <v>48.22831452690173</v>
+        <v>290.0808204550326</v>
       </c>
       <c r="W20" t="n">
-        <v>310.7313136518389</v>
+        <v>311.5695307023107</v>
       </c>
       <c r="X20" t="n">
-        <v>90.20715673523586</v>
+        <v>332.0596626633667</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.7282835904795</v>
+        <v>348.5665006409513</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>128.861745634765</v>
       </c>
       <c r="C21" t="n">
-        <v>134.1988439227416</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>108.9354104990646</v>
+        <v>109.7736275495364</v>
       </c>
       <c r="E21" t="n">
-        <v>119.1354253898268</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>106.5595573278098</v>
+        <v>107.3977743782816</v>
       </c>
       <c r="G21" t="n">
-        <v>98.83386209763651</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>73.72578917092234</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50.88697778584095</v>
+        <v>51.72519483631277</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>61.64817908706901</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>161.6550736292475</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.2699440658725</v>
       </c>
       <c r="V21" t="n">
-        <v>42.0278222950233</v>
+        <v>195.129149134323</v>
       </c>
       <c r="W21" t="n">
-        <v>213.1853280953455</v>
+        <v>66.93350155840832</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>168.1015471883752</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>168.011257762202</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>142.160542166835</v>
       </c>
       <c r="C22" t="n">
-        <v>128.7371660330537</v>
+        <v>129.5753830835255</v>
       </c>
       <c r="D22" t="n">
-        <v>110.1058179526382</v>
+        <v>110.94403500311</v>
       </c>
       <c r="E22" t="n">
-        <v>107.924307580995</v>
+        <v>108.7625246314669</v>
       </c>
       <c r="F22" t="n">
-        <v>106.9113929573571</v>
+        <v>107.7496100078289</v>
       </c>
       <c r="G22" t="n">
-        <v>129.4813242928846</v>
+        <v>130.3195413433564</v>
       </c>
       <c r="H22" t="n">
-        <v>123.7175174418655</v>
+        <v>124.5557344923373</v>
       </c>
       <c r="I22" t="n">
-        <v>116.9408198616842</v>
+        <v>117.779036912156</v>
       </c>
       <c r="J22" t="n">
-        <v>54.84952505109865</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.65238818612026</v>
+        <v>48.49060523659207</v>
       </c>
       <c r="R22" t="n">
-        <v>138.7837363115954</v>
+        <v>139.6219533620672</v>
       </c>
       <c r="S22" t="n">
-        <v>185.5069429713981</v>
+        <v>186.34516002187</v>
       </c>
       <c r="T22" t="n">
-        <v>189.4359343627074</v>
+        <v>190.2741514131792</v>
       </c>
       <c r="U22" t="n">
-        <v>247.8093742909168</v>
+        <v>248.6475913413886</v>
       </c>
       <c r="V22" t="n">
-        <v>213.6279882582539</v>
+        <v>214.4662053087257</v>
       </c>
       <c r="W22" t="n">
-        <v>248.0133432710169</v>
+        <v>155.2285047860987</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>188.0382173739349</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.4440915653894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>103.2098977202474</v>
+        <v>345.0624036483783</v>
       </c>
       <c r="C23" t="n">
-        <v>85.74894782777437</v>
+        <v>327.6014537559053</v>
       </c>
       <c r="D23" t="n">
-        <v>316.1733865551088</v>
+        <v>193.1448982197269</v>
       </c>
       <c r="E23" t="n">
-        <v>343.4207150066877</v>
+        <v>344.2589320571595</v>
       </c>
       <c r="F23" t="n">
-        <v>368.3663906761373</v>
+        <v>369.2046077266091</v>
       </c>
       <c r="G23" t="n">
-        <v>376.7930824495609</v>
+        <v>377.6312995000328</v>
       </c>
       <c r="H23" t="n">
-        <v>300.965147050193</v>
+        <v>301.8033641006649</v>
       </c>
       <c r="I23" t="n">
-        <v>171.9662345048318</v>
+        <v>172.8044515553036</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>111.3594628755756</v>
+        <v>112.1976799260474</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>184.5861944985572</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>171.0610267194916</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>289.2426034045608</v>
+        <v>49.06653157737355</v>
       </c>
       <c r="W23" t="n">
-        <v>310.7313136518389</v>
+        <v>311.5695307023107</v>
       </c>
       <c r="X23" t="n">
-        <v>331.2214456128949</v>
+        <v>332.0596626633667</v>
       </c>
       <c r="Y23" t="n">
-        <v>106.7139947128204</v>
+        <v>348.5665006409513</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>128.861745634765</v>
       </c>
       <c r="C24" t="n">
-        <v>134.1988439227416</v>
+        <v>109.8688181167239</v>
       </c>
       <c r="D24" t="n">
-        <v>108.9354104990646</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>15.76585766274354</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>98.83386209763651</v>
+        <v>99.67207914810832</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>74.56400622139415</v>
       </c>
       <c r="I24" t="n">
-        <v>50.88697778584095</v>
+        <v>51.72519483631277</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24339,19 +24339,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>187.4317270154007</v>
+        <v>188.2699440658725</v>
       </c>
       <c r="V24" t="n">
-        <v>194.2909320838511</v>
+        <v>195.129149134323</v>
       </c>
       <c r="W24" t="n">
-        <v>213.1853280953455</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>167.2633301379034</v>
+        <v>168.1015471883752</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>168.011257762202</v>
       </c>
     </row>
     <row r="25">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>141.3223251163632</v>
+        <v>142.160542166835</v>
       </c>
       <c r="C25" t="n">
-        <v>128.7371660330537</v>
+        <v>129.5753830835255</v>
       </c>
       <c r="D25" t="n">
-        <v>110.1058179526382</v>
+        <v>110.94403500311</v>
       </c>
       <c r="E25" t="n">
-        <v>107.924307580995</v>
+        <v>108.7625246314669</v>
       </c>
       <c r="F25" t="n">
-        <v>106.9113929573571</v>
+        <v>107.7496100078289</v>
       </c>
       <c r="G25" t="n">
-        <v>129.4813242928846</v>
+        <v>130.3195413433564</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>54.84952505109865</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.65238818612026</v>
+        <v>48.49060523659207</v>
       </c>
       <c r="R25" t="n">
-        <v>138.7837363115954</v>
+        <v>107.4204538941778</v>
       </c>
       <c r="S25" t="n">
-        <v>185.5069429713981</v>
+        <v>186.34516002187</v>
       </c>
       <c r="T25" t="n">
-        <v>189.4359343627074</v>
+        <v>190.2741514131792</v>
       </c>
       <c r="U25" t="n">
-        <v>247.8093742909168</v>
+        <v>248.6475913413886</v>
       </c>
       <c r="V25" t="n">
-        <v>213.6279882582539</v>
+        <v>214.4662053087257</v>
       </c>
       <c r="W25" t="n">
-        <v>248.0133432710169</v>
+        <v>248.8515603214887</v>
       </c>
       <c r="X25" t="n">
-        <v>92.70510546605522</v>
+        <v>188.0382173739349</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.0749982865207</v>
+        <v>180.9132153369925</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>326.0619736720581</v>
+        <v>322.9376434572722</v>
       </c>
       <c r="C26" t="n">
-        <v>308.6010237795851</v>
+        <v>305.4766935647992</v>
       </c>
       <c r="D26" t="n">
-        <v>298.0111736292605</v>
+        <v>294.8868434144746</v>
       </c>
       <c r="E26" t="n">
-        <v>325.2585020808393</v>
+        <v>81.11988298839435</v>
       </c>
       <c r="F26" t="n">
-        <v>291.7228136858303</v>
+        <v>347.0798475355031</v>
       </c>
       <c r="G26" t="n">
-        <v>358.6308695237126</v>
+        <v>355.5065393089267</v>
       </c>
       <c r="H26" t="n">
-        <v>282.8029341243447</v>
+        <v>38.66431503189972</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.19724994972721</v>
+        <v>90.07291973494132</v>
       </c>
       <c r="S26" t="n">
-        <v>152.3482015948229</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>166.4239815727089</v>
+        <v>163.299651357923</v>
       </c>
       <c r="U26" t="n">
-        <v>194.673784916414</v>
+        <v>38.15334292476155</v>
       </c>
       <c r="V26" t="n">
-        <v>271.0803904787124</v>
+        <v>267.9560602639265</v>
       </c>
       <c r="W26" t="n">
-        <v>51.5548118483315</v>
+        <v>289.4447705112046</v>
       </c>
       <c r="X26" t="n">
-        <v>72.04494380938752</v>
+        <v>309.9349024722607</v>
       </c>
       <c r="Y26" t="n">
-        <v>88.55178178697207</v>
+        <v>326.4417404498452</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.8613156584449</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4600251023179567</v>
+        <v>112.9123007821074</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24531,16 +24531,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>88.3973444019614</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>77.54731895700228</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>29.60043464520672</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>43.48596616122066</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>143.4928607033991</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>169.2695140895523</v>
+        <v>166.1451838747665</v>
       </c>
       <c r="V27" t="n">
-        <v>176.1287191580028</v>
+        <v>173.0043889432169</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>191.8987849547112</v>
       </c>
       <c r="X27" t="n">
-        <v>149.101117212055</v>
+        <v>79.09916689336909</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.1601121905148</v>
+        <v>120.0357819757289</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>88.819274812004</v>
       </c>
       <c r="E28" t="n">
-        <v>89.7620946551467</v>
+        <v>86.63776444036081</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>85.62484981672289</v>
       </c>
       <c r="G28" t="n">
-        <v>111.3191113670363</v>
+        <v>108.1947811522504</v>
       </c>
       <c r="H28" t="n">
-        <v>105.5553045160171</v>
+        <v>102.4309743012312</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77860693583581</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>36.6873121252503</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49017526027191</v>
+        <v>26.36584504548603</v>
       </c>
       <c r="R28" t="n">
-        <v>120.621523385747</v>
+        <v>117.4971931709611</v>
       </c>
       <c r="S28" t="n">
-        <v>16.6545267183524</v>
+        <v>164.2203998307639</v>
       </c>
       <c r="T28" t="n">
-        <v>171.273721436859</v>
+        <v>168.1493912220731</v>
       </c>
       <c r="U28" t="n">
-        <v>229.6471613650684</v>
+        <v>226.5228311502825</v>
       </c>
       <c r="V28" t="n">
-        <v>195.4657753324055</v>
+        <v>192.3414451176196</v>
       </c>
       <c r="W28" t="n">
-        <v>229.8511303451685</v>
+        <v>3.063803900545281</v>
       </c>
       <c r="X28" t="n">
-        <v>169.0377873976147</v>
+        <v>165.9134571828288</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.9127853606723</v>
+        <v>158.7884551458864</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27.47671900819387</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
-        <v>10.01576911572084</v>
+        <v>251.0300579933799</v>
       </c>
       <c r="D29" t="n">
         <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
-        <v>55.40215065119202</v>
+        <v>116.6583683367842</v>
       </c>
       <c r="F29" t="n">
         <v>51.61892308642473</v>
@@ -24728,7 +24728,7 @@
         <v>35.62628416352204</v>
       </c>
       <c r="S29" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>108.8530157865037</v>
@@ -24737,10 +24737,10 @@
         <v>137.1028191302088</v>
       </c>
       <c r="V29" t="n">
-        <v>213.5094246925073</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>255.4882669008414</v>
@@ -24844,16 +24844,16 @@
         <v>34.37263924058472</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.17821424530361</v>
       </c>
       <c r="G31" t="n">
         <v>53.74814558083112</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.98433872981194</v>
       </c>
       <c r="I31" t="n">
         <v>41.20764114963065</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>92.92337636992121</v>
+        <v>93.03651613727365</v>
       </c>
     </row>
     <row r="32">
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27.47671900819387</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C32" t="n">
-        <v>251.0300579933799</v>
+        <v>10.01576911572084</v>
       </c>
       <c r="D32" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>267.6875362946341</v>
+        <v>26.67324741697507</v>
       </c>
       <c r="F32" t="n">
-        <v>51.61892308642473</v>
+        <v>79.77374528603795</v>
       </c>
       <c r="G32" t="n">
         <v>301.0599037375074</v>
@@ -24977,10 +24977,10 @@
         <v>213.5094246925073</v>
       </c>
       <c r="W32" t="n">
-        <v>22.71274929634336</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X32" t="n">
-        <v>14.47397802318233</v>
+        <v>255.4882669008414</v>
       </c>
       <c r="Y32" t="n">
         <v>271.9951048784259</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>33.83404456703783</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D34" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.05055759954185</v>
       </c>
       <c r="S34" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>83.1113977554711</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25154,10 @@
         <v>268.4910078858529</v>
       </c>
       <c r="C35" t="n">
-        <v>35.63606031035167</v>
+        <v>77.79708208996689</v>
       </c>
       <c r="D35" t="n">
-        <v>25.04621016002707</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E35" t="n">
         <v>267.6875362946341</v>
@@ -25166,10 +25166,10 @@
         <v>292.6332119640838</v>
       </c>
       <c r="G35" t="n">
-        <v>301.0599037375074</v>
+        <v>85.66590605447917</v>
       </c>
       <c r="H35" t="n">
-        <v>225.2319683381395</v>
+        <v>9.837970655111263</v>
       </c>
       <c r="I35" t="n">
         <v>96.23305579277827</v>
@@ -25199,19 +25199,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S35" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>108.8530157865037</v>
       </c>
       <c r="U35" t="n">
-        <v>137.1028191302088</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>59.416675696818</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W35" t="n">
         <v>234.9981349397854</v>
@@ -25220,7 +25220,7 @@
         <v>255.4882669008414</v>
       </c>
       <c r="Y35" t="n">
-        <v>56.6011071953977</v>
+        <v>271.9951048784259</v>
       </c>
     </row>
     <row r="36">
@@ -25242,7 +25242,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>13.50533115092908</v>
+        <v>30.82637861575624</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25284,7 +25284,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>85.92189491719397</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>68.60084745236685</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>65.58914640430966</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>31.17821424530361</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>53.74814558083112</v>
       </c>
       <c r="H37" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>63.05055759954185</v>
       </c>
       <c r="S37" t="n">
-        <v>109.7737642593446</v>
+        <v>100.7168692350039</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>93.44447446445015</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>196.982995604514</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C38" t="n">
-        <v>251.0300579933799</v>
+        <v>62.99082980918408</v>
       </c>
       <c r="D38" t="n">
-        <v>240.4402078430553</v>
+        <v>26.95334569024442</v>
       </c>
       <c r="E38" t="n">
-        <v>267.6875362946341</v>
+        <v>54.20067414182324</v>
       </c>
       <c r="F38" t="n">
         <v>292.6332119640838</v>
@@ -25406,10 +25406,10 @@
         <v>301.0599037375074</v>
       </c>
       <c r="H38" t="n">
-        <v>9.837970655111263</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>96.23305579277827</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>94.7772358086177</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U38" t="n">
         <v>137.1028191302088</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W38" t="n">
         <v>234.9981349397854</v>
       </c>
       <c r="X38" t="n">
-        <v>255.4882669008414</v>
+        <v>42.0014047480305</v>
       </c>
       <c r="Y38" t="n">
         <v>271.9951048784259</v>
@@ -25470,7 +25470,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>58.4656652106881</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25533,10 +25533,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>91.53015142584984</v>
+        <v>48.3627724231024</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.897074642273211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>31.17821424530361</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>18.33149237836211</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>172.0761955788632</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>172.2801645589633</v>
       </c>
       <c r="X40" t="n">
         <v>111.4668216114095</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.79453937579508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>289.3746615468078</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C41" t="n">
-        <v>271.9137116543347</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D41" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E41" t="n">
-        <v>117.2778321381768</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F41" t="n">
-        <v>162.641676059462</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G41" t="n">
-        <v>150.65019958105</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H41" t="n">
-        <v>74.8222641816821</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I41" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.50993782447691</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S41" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T41" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U41" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V41" t="n">
-        <v>234.3930783534621</v>
+        <v>82.43307374733607</v>
       </c>
       <c r="W41" t="n">
-        <v>255.8817886007402</v>
+        <v>103.9217839946142</v>
       </c>
       <c r="X41" t="n">
-        <v>276.3719205617963</v>
+        <v>142.9978841387392</v>
       </c>
       <c r="Y41" t="n">
-        <v>292.8787585393808</v>
+        <v>140.9187539332547</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D42" t="n">
-        <v>54.08588544796598</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>64.28590033872817</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G42" t="n">
-        <v>43.98433704653786</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S42" t="n">
-        <v>60.1816696433316</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>93.24758017130995</v>
       </c>
       <c r="U42" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V42" t="n">
-        <v>139.4414070327525</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>6.375798438120768</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="43">
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C43" t="n">
-        <v>73.88764098195506</v>
+        <v>66.52606451859333</v>
       </c>
       <c r="D43" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F43" t="n">
-        <v>52.06186790625847</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>192.9598492398181</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V43" t="n">
-        <v>104.4056964595491</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W43" t="n">
-        <v>193.1638182199182</v>
+        <v>41.20381361379216</v>
       </c>
       <c r="X43" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.225473235422</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>305053.2635964358</v>
+        <v>305053.2635964359</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>385622.0825678935</v>
+        <v>385170.1531003504</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>417034.2224267333</v>
+        <v>426026.1017260134</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>524515.5865547406</v>
+        <v>522557.7216490885</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>524515.5865547406</v>
+        <v>522557.7216490887</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>566937.963045986</v>
+        <v>574235.6152206276</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699782.0642172841</v>
+        <v>699782.064217284</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>683920.5471869658</v>
+        <v>683920.5471869659</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>683920.5471869662</v>
+        <v>682739.8399708824</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609307.522603128</v>
+        <v>589972.3774878331</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>675902.9794415568</v>
+      </c>
+      <c r="C2" t="n">
+        <v>675902.9794415568</v>
+      </c>
+      <c r="D2" t="n">
         <v>675902.9794415567</v>
       </c>
-      <c r="C2" t="n">
-        <v>675902.9794415567</v>
-      </c>
-      <c r="D2" t="n">
-        <v>675902.9794415566</v>
-      </c>
       <c r="E2" t="n">
-        <v>195207.0769884513</v>
+        <v>195207.0769884512</v>
       </c>
       <c r="F2" t="n">
-        <v>267065.7533683997</v>
+        <v>266308.6240066168</v>
       </c>
       <c r="G2" t="n">
-        <v>287680.2605446933</v>
+        <v>293216.6210563392</v>
       </c>
       <c r="H2" t="n">
-        <v>355866.5665769028</v>
+        <v>354120.3627421323</v>
       </c>
       <c r="I2" t="n">
-        <v>355866.5665769027</v>
+        <v>354120.3627421322</v>
       </c>
       <c r="J2" t="n">
-        <v>393702.7402042302</v>
+        <v>400211.4570086399</v>
       </c>
       <c r="K2" t="n">
-        <v>512185.316924577</v>
+        <v>512185.3169245769</v>
       </c>
       <c r="L2" t="n">
         <v>512185.3169245762</v>
       </c>
       <c r="M2" t="n">
-        <v>502177.9666208195</v>
+        <v>502177.9666208196</v>
       </c>
       <c r="N2" t="n">
-        <v>502177.9666208195</v>
+        <v>501433.0346767353</v>
       </c>
       <c r="O2" t="n">
-        <v>442756.4480762256</v>
+        <v>427995.0126475939</v>
       </c>
       <c r="P2" t="n">
-        <v>177387.2191268865</v>
+        <v>177387.2191268866</v>
       </c>
     </row>
     <row r="3">
@@ -26372,25 +26372,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9826.807892395696</v>
+        <v>9826.807892395689</v>
       </c>
       <c r="F3" t="n">
-        <v>28630.57146437409</v>
+        <v>28506.44173892769</v>
       </c>
       <c r="G3" t="n">
-        <v>12087.32387756735</v>
+        <v>15777.51398348496</v>
       </c>
       <c r="H3" t="n">
-        <v>46216.48957935819</v>
+        <v>42069.30779786619</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16706.92292876389</v>
+        <v>19876.96074097005</v>
       </c>
       <c r="K3" t="n">
-        <v>74687.34409333822</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>92595.1098013552</v>
+        <v>90249.9409903066</v>
       </c>
       <c r="F4" t="n">
-        <v>142309.7359487294</v>
+        <v>139247.6940031153</v>
       </c>
       <c r="G4" t="n">
-        <v>152792.8852047603</v>
+        <v>152712.8147196659</v>
       </c>
       <c r="H4" t="n">
-        <v>185696.3947519231</v>
+        <v>181071.403663529</v>
       </c>
       <c r="I4" t="n">
-        <v>185696.3947519231</v>
+        <v>181071.403663529</v>
       </c>
       <c r="J4" t="n">
-        <v>211906.5596921588</v>
+        <v>212999.9806623565</v>
       </c>
       <c r="K4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.7736373409</v>
       </c>
       <c r="L4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.7736373409</v>
       </c>
       <c r="M4" t="n">
-        <v>289213.1115412901</v>
+        <v>285924.0544505364</v>
       </c>
       <c r="N4" t="n">
-        <v>289213.1115412901</v>
+        <v>285577.1920376747</v>
       </c>
       <c r="O4" t="n">
-        <v>251730.6913121381</v>
+        <v>239785.8348197252</v>
       </c>
       <c r="P4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1786.502505793224</v>
+        <v>1786.502505793223</v>
       </c>
       <c r="F5" t="n">
-        <v>4795.181896341305</v>
+        <v>4840.667667362402</v>
       </c>
       <c r="G5" t="n">
-        <v>7476.500800170756</v>
+        <v>8340.577732473172</v>
       </c>
       <c r="H5" t="n">
-        <v>17891.13695546942</v>
+        <v>17820.66888625331</v>
       </c>
       <c r="I5" t="n">
-        <v>17891.13695546942</v>
+        <v>17820.66888625331</v>
       </c>
       <c r="J5" t="n">
-        <v>19418.01603393257</v>
+        <v>19680.6753507594</v>
       </c>
       <c r="K5" t="n">
         <v>24257.94955661305</v>
@@ -26503,10 +26503,10 @@
         <v>22700.23585197949</v>
       </c>
       <c r="N5" t="n">
-        <v>22700.23585197949</v>
+        <v>22584.28201174228</v>
       </c>
       <c r="O5" t="n">
-        <v>18263.24906852723</v>
+        <v>16995.57668096575</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>214558.2057085856</v>
+        <v>216752.2402754534</v>
       </c>
       <c r="C6" t="n">
-        <v>214558.2057085856</v>
+        <v>216752.2402754534</v>
       </c>
       <c r="D6" t="n">
-        <v>214558.2057085855</v>
+        <v>216752.2402754533</v>
       </c>
       <c r="E6" t="n">
-        <v>90998.65678890714</v>
+        <v>93343.82559995574</v>
       </c>
       <c r="F6" t="n">
-        <v>91330.26405895494</v>
+        <v>93713.82059721139</v>
       </c>
       <c r="G6" t="n">
-        <v>115323.5506621949</v>
+        <v>116385.7146207152</v>
       </c>
       <c r="H6" t="n">
-        <v>106062.545290152</v>
+        <v>113158.9823944838</v>
       </c>
       <c r="I6" t="n">
-        <v>152279.0348695102</v>
+        <v>155228.2901923499</v>
       </c>
       <c r="J6" t="n">
-        <v>145671.2415493749</v>
+        <v>147653.840254554</v>
       </c>
       <c r="K6" t="n">
-        <v>119240.9022876949</v>
+        <v>125826.2874494909</v>
       </c>
       <c r="L6" t="n">
-        <v>193928.2463810323</v>
+        <v>197343.5937306223</v>
       </c>
       <c r="M6" t="n">
-        <v>190264.61922755</v>
+        <v>193553.6763183037</v>
       </c>
       <c r="N6" t="n">
-        <v>190264.6192275499</v>
+        <v>193271.5606273183</v>
       </c>
       <c r="O6" t="n">
-        <v>172762.5076955602</v>
+        <v>171213.601146903</v>
       </c>
       <c r="P6" t="n">
-        <v>94562.63041143418</v>
+        <v>96756.66497830181</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="F2" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G2" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H2" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I2" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J2" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>114.2428337776276</v>
       </c>
       <c r="O2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26796,13 +26796,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="G4" t="n">
-        <v>69.7209310602468</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26823,10 +26823,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>215.3939976830282</v>
+        <v>213.4868621528109</v>
       </c>
       <c r="O4" t="n">
-        <v>171.2933578174123</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="F2" t="n">
-        <v>35.78821433046761</v>
+        <v>34.9499972799958</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.88365366095486</v>
+        <v>24.84620092621256</v>
       </c>
       <c r="K2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,16 +27018,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.907135530217317</v>
       </c>
       <c r="G4" t="n">
-        <v>44.10063986561596</v>
+        <v>57.56431028142713</v>
       </c>
       <c r="H4" t="n">
-        <v>171.2933578174123</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="K2" t="n">
-        <v>35.78821433046761</v>
+        <v>34.9499972799958</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.88365366095486</v>
+        <v>24.84620092621256</v>
       </c>
       <c r="P2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.907135530217317</v>
       </c>
       <c r="O4" t="n">
-        <v>44.10063986561596</v>
+        <v>57.56431028142713</v>
       </c>
       <c r="P4" t="n">
-        <v>171.2933578174123</v>
+        <v>155.9225518713838</v>
       </c>
     </row>
   </sheetData>
@@ -28087,31 +28087,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="C11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="D11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="E11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="F11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="G11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="H11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="I11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="J11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,31 +28132,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="R11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="S11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="T11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="U11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="V11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="W11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="X11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="C12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="D12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="E12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="F12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="G12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="H12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="I12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="S12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="T12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="U12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="V12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="W12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="X12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28245,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="C13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="D13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="E13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="F13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="G13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="H13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="I13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="J13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="K13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28287,34 +28287,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="R13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="S13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="T13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="U13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="V13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="W13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="X13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.721440735106512</v>
+        <v>2.721440735106513</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y15" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="16">
@@ -28482,34 +28482,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>24.09957137508129</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="R16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y18" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="K19" t="n">
-        <v>24.04872309324544</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="L19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="N19" t="n">
-        <v>25.58875868101821</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="O19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="P19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="R19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y21" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="K22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="L22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="M22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="N22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="O22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="P22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="R22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y24" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="C25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="D25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="E25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="F25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="G25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="H25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="I25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="J25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="K25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="L25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="M25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="N25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="O25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="P25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="R25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="S25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="T25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="U25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="V25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="W25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="X25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.50965506557412</v>
+        <v>37.67143801510231</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="C26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="D26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="E26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="F26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="G26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="H26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="I26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="S26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="T26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="U26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="V26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="W26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="X26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="C27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="D27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="E27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="F27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="G27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="H27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="I27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="S27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="T27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="U27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="V27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="W27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="X27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="Y27" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="C28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="D28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="E28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="F28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="G28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="H28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="I28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="K28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="L28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="M28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="N28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="O28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="P28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="R28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="S28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="T28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="U28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="V28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="W28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="X28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.67186799142247</v>
+        <v>59.79619820620836</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N43" t="n">
-        <v>93.35918011667277</v>
+        <v>56.2722825885909</v>
       </c>
       <c r="O43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="44">
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="M11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>24.58512791403966</v>
       </c>
       <c r="P11" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="P12" t="n">
-        <v>24.58512791403969</v>
+        <v>24.58512791403966</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,13 +35571,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>25.62029119463084</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="M13" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="N13" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463081</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="L14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="O14" t="n">
-        <v>25.62029119463083</v>
+        <v>26.41520746323811</v>
       </c>
       <c r="P14" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="L15" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="O15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>26.41520746323811</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,16 +35805,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.830079549198435</v>
       </c>
       <c r="L16" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="M16" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="N16" t="n">
-        <v>25.62029119463083</v>
+        <v>27.52742672484813</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>69.7209310602468</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="L17" t="n">
-        <v>69.7209310602468</v>
+        <v>81.65368702622376</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>66.90392374468129</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="P17" t="n">
-        <v>69.7209310602468</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>69.7209310602468</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="L18" t="n">
-        <v>69.7209310602468</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="M18" t="n">
-        <v>66.90392374468129</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>11.5581733763962</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>85.09173700627527</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.7209310602468</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.779231267362589</v>
+        <v>15.40194618921946</v>
       </c>
       <c r="L19" t="n">
-        <v>66.09968032589026</v>
+        <v>65.26146327541845</v>
       </c>
       <c r="M19" t="n">
-        <v>39.58387696184059</v>
+        <v>77.2553149769429</v>
       </c>
       <c r="N19" t="n">
-        <v>69.7209310602468</v>
+        <v>81.8036103943309</v>
       </c>
       <c r="O19" t="n">
-        <v>63.0947829796138</v>
+        <v>62.25656592914198</v>
       </c>
       <c r="P19" t="n">
-        <v>35.78821433046761</v>
+        <v>34.9499972799958</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>16.24016323969127</v>
+        <v>15.40194618921946</v>
       </c>
       <c r="L22" t="n">
-        <v>66.09968032589026</v>
+        <v>65.26146327541845</v>
       </c>
       <c r="M22" t="n">
-        <v>78.09353202741471</v>
+        <v>77.2553149769429</v>
       </c>
       <c r="N22" t="n">
-        <v>82.64182744480271</v>
+        <v>81.8036103943309</v>
       </c>
       <c r="O22" t="n">
-        <v>63.0947829796138</v>
+        <v>62.25656592914198</v>
       </c>
       <c r="P22" t="n">
-        <v>35.78821433046761</v>
+        <v>34.9499972799958</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>16.24016323969127</v>
+        <v>15.40194618921946</v>
       </c>
       <c r="L25" t="n">
-        <v>66.09968032589026</v>
+        <v>65.26146327541845</v>
       </c>
       <c r="M25" t="n">
-        <v>78.09353202741471</v>
+        <v>77.2553149769429</v>
       </c>
       <c r="N25" t="n">
-        <v>82.64182744480271</v>
+        <v>81.8036103943309</v>
       </c>
       <c r="O25" t="n">
-        <v>63.0947829796138</v>
+        <v>62.25656592914198</v>
       </c>
       <c r="P25" t="n">
-        <v>35.78821433046761</v>
+        <v>34.9499972799958</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36677,22 +36677,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>34.40237616553962</v>
+        <v>37.52670638032551</v>
       </c>
       <c r="L28" t="n">
-        <v>84.26189325173861</v>
+        <v>87.3862234665245</v>
       </c>
       <c r="M28" t="n">
-        <v>96.25574495326306</v>
+        <v>99.38007516804895</v>
       </c>
       <c r="N28" t="n">
-        <v>100.8040403706511</v>
+        <v>103.928370585437</v>
       </c>
       <c r="O28" t="n">
-        <v>81.25699590546215</v>
+        <v>84.38132612024803</v>
       </c>
       <c r="P28" t="n">
-        <v>53.95042725631596</v>
+        <v>57.07475747110185</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6.382862610783645</v>
+        <v>96.94857502699675</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37321,7 +37321,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>215.3939976830282</v>
+        <v>40.87753466722953</v>
       </c>
       <c r="N36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>9.971898209808115</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37549,13 +37549,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>215.3939976830282</v>
+        <v>213.4868621528109</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>104.6168112903596</v>
       </c>
       <c r="O38" t="n">
-        <v>53.02927092565796</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>22.20284867224841</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>215.3939976830282</v>
+        <v>213.4868621528109</v>
       </c>
       <c r="M39" t="n">
-        <v>215.3939976830282</v>
+        <v>213.4868621528109</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>163.7641176260332</v>
       </c>
       <c r="O39" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>171.2933578174123</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="M41" t="n">
-        <v>171.2933578174123</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="N41" t="n">
-        <v>171.2933578174123</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="O41" t="n">
-        <v>73.80670165100076</v>
+        <v>59.05693836945825</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>171.2933578174123</v>
+        <v>149.6226507856714</v>
       </c>
       <c r="N42" t="n">
-        <v>94.2769004173862</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="P42" t="n">
-        <v>171.2933578174123</v>
+        <v>155.9225518713838</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>71.08968829078992</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="L43" t="n">
-        <v>120.9492053769889</v>
+        <v>116.9866581117312</v>
       </c>
       <c r="M43" t="n">
-        <v>132.9430570785134</v>
+        <v>128.9805098132557</v>
       </c>
       <c r="N43" t="n">
-        <v>137.4913524959014</v>
+        <v>100.4044549678195</v>
       </c>
       <c r="O43" t="n">
-        <v>117.9443080307124</v>
+        <v>113.9817607654548</v>
       </c>
       <c r="P43" t="n">
-        <v>90.63773938156626</v>
+        <v>86.67519211630857</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.19713686497839</v>
+        <v>3.234589599720692</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
